--- a/2021-02-20to02-26 (A5) C54321 ShortName/30_09v01_DemixCMMIv2Tool.xlsx
+++ b/2021-02-20to02-26 (A5) C54321 ShortName/30_09v01_DemixCMMIv2Tool.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PietervanZyl\Documents\GitHub\CMMITools\2021-02-20to02-26 (A5) C54321 ShortName\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F1F3511-3386-4CEF-8837-3663901A2988}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E869DF1-D69F-409B-93EE-CB1B067F1B3E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15840" tabRatio="852" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15840" tabRatio="852" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="tmp" sheetId="39" r:id="rId1"/>
@@ -23,7 +23,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Findings!$A$1:$C$38</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">ou!$A$1:$W$39</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">ou!$A$1:$W$40</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">'ou-gov&amp;ii'!$A$1:$T$37</definedName>
     <definedName name="tbl_practiceCharacterization">Tables!$B$2:$B$6</definedName>
     <definedName name="tbl_practiceGroupRated">Tables!$B$9:$B$11</definedName>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="873" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="858" uniqueCount="119">
   <si>
     <t xml:space="preserve">GOV - GOVERNANCE (GOV)  </t>
   </si>
@@ -354,9 +354,6 @@
   </si>
   <si>
     <t>OoS</t>
-  </si>
-  <si>
-    <t>S</t>
   </si>
   <si>
     <t>Level 2</t>
@@ -417,12 +414,19 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -541,6 +545,14 @@
       <b/>
       <sz val="14"/>
       <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -696,220 +708,228 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="6">
+  <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="5" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="5" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="5" xfId="6" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="5" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="7">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="2" xr:uid="{00000000-0005-0000-0000-00002A000000}"/>
     <cellStyle name="Normal 3" xfId="5" xr:uid="{447F488A-E21B-40B9-B0C7-62753E418321}"/>
+    <cellStyle name="Normal 5" xfId="6" xr:uid="{DAD012F6-D5B2-4CB2-97F5-4B9AE064F659}"/>
     <cellStyle name="Normal_Consolidate Data 1" xfId="3" xr:uid="{00000000-0005-0000-0000-000032000000}"/>
     <cellStyle name="常规_CMMI_PIID0809_v1.2" xfId="4" xr:uid="{00000000-0005-0000-0000-000033000000}"/>
   </cellStyles>
-  <dxfs count="120">
+  <dxfs count="130">
     <dxf>
       <fill>
         <patternFill>
@@ -920,6 +940,13 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FF00CC00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFFFF00"/>
         </patternFill>
       </fill>
@@ -934,6 +961,37 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FF00CC00"/>
         </patternFill>
       </fill>
@@ -977,6 +1035,45 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFD347"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="1"/>
+      </font>
       <fill>
         <patternFill>
           <bgColor rgb="FFFFFF00"/>
@@ -984,14 +1081,33 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00CC00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF33CC33"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
         <color theme="0"/>
       </font>
       <fill>
@@ -1001,13 +1117,35 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFD347"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="1"/>
+      </font>
       <fill>
         <patternFill>
           <bgColor rgb="FF00CC00"/>
@@ -1016,11 +1154,13 @@
     </dxf>
     <dxf>
       <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
+        <b/>
+        <i val="0"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF33CC33"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2569,10 +2709,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9A364F4-07FE-4AE1-A184-18506418AACE}">
-  <dimension ref="A2:AA35"/>
+  <dimension ref="A2:V35"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="R13" sqref="R13"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AA17" sqref="AA17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5"/>
@@ -2582,55 +2722,55 @@
     <col min="23" max="16384" width="8.7265625" style="16"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:27" ht="93">
-      <c r="A2" s="57" t="s">
+    <row r="2" spans="1:22" ht="93">
+      <c r="A2" s="55" t="s">
         <v>67</v>
       </c>
-      <c r="B2" s="57" t="s">
+      <c r="B2" s="55" t="s">
         <v>68</v>
       </c>
-      <c r="C2" s="55" t="s">
+      <c r="C2" s="53" t="s">
         <v>69</v>
       </c>
-      <c r="D2" s="55"/>
-      <c r="E2" s="56" t="s">
+      <c r="D2" s="53"/>
+      <c r="E2" s="54" t="s">
         <v>70</v>
       </c>
-      <c r="F2" s="56"/>
-      <c r="G2" s="55" t="s">
+      <c r="F2" s="54"/>
+      <c r="G2" s="53" t="s">
         <v>71</v>
       </c>
-      <c r="H2" s="55"/>
-      <c r="I2" s="55"/>
-      <c r="J2" s="55"/>
-      <c r="K2" s="56" t="s">
+      <c r="H2" s="53"/>
+      <c r="I2" s="53"/>
+      <c r="J2" s="53"/>
+      <c r="K2" s="54" t="s">
         <v>72</v>
       </c>
-      <c r="L2" s="56"/>
-      <c r="M2" s="56"/>
+      <c r="L2" s="54"/>
+      <c r="M2" s="54"/>
       <c r="N2" s="28" t="s">
         <v>73</v>
       </c>
       <c r="O2" s="29" t="s">
         <v>74</v>
       </c>
-      <c r="P2" s="55" t="s">
+      <c r="P2" s="53" t="s">
         <v>75</v>
       </c>
-      <c r="Q2" s="55"/>
-      <c r="R2" s="55"/>
-      <c r="S2" s="56" t="s">
+      <c r="Q2" s="53"/>
+      <c r="R2" s="53"/>
+      <c r="S2" s="54" t="s">
         <v>76</v>
       </c>
-      <c r="T2" s="56"/>
-      <c r="U2" s="56"/>
+      <c r="T2" s="54"/>
+      <c r="U2" s="54"/>
       <c r="V2" s="30" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="3" spans="1:27" ht="15.5">
-      <c r="A3" s="57"/>
-      <c r="B3" s="57"/>
+    <row r="3" spans="1:22" ht="15.5">
+      <c r="A3" s="55"/>
+      <c r="B3" s="55"/>
       <c r="C3" s="31" t="s">
         <v>78</v>
       </c>
@@ -2692,1387 +2832,1366 @@
         <v>97</v>
       </c>
     </row>
-    <row r="4" spans="1:27" ht="15.5">
-      <c r="A4" s="54" t="s">
+    <row r="4" spans="1:22" ht="15.5">
+      <c r="A4" s="52" t="s">
         <v>98</v>
       </c>
       <c r="B4" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="34" t="s">
-        <v>99</v>
-      </c>
-      <c r="D4" s="34" t="s">
-        <v>99</v>
-      </c>
-      <c r="E4" s="34" t="s">
-        <v>99</v>
-      </c>
-      <c r="F4" s="34" t="s">
-        <v>99</v>
-      </c>
-      <c r="G4" s="34" t="s">
-        <v>99</v>
-      </c>
-      <c r="H4" s="34" t="s">
-        <v>99</v>
-      </c>
-      <c r="I4" s="34" t="s">
-        <v>99</v>
-      </c>
-      <c r="J4" s="34" t="s">
-        <v>99</v>
-      </c>
-      <c r="K4" s="34" t="s">
-        <v>99</v>
-      </c>
-      <c r="L4" s="34" t="s">
-        <v>99</v>
-      </c>
-      <c r="M4" s="34" t="s">
-        <v>99</v>
-      </c>
-      <c r="N4" s="34" t="s">
-        <v>99</v>
-      </c>
-      <c r="O4" s="34" t="s">
-        <v>99</v>
-      </c>
-      <c r="P4" s="34" t="s">
-        <v>99</v>
-      </c>
-      <c r="Q4" s="34" t="s">
-        <v>99</v>
-      </c>
-      <c r="R4" s="34" t="s">
-        <v>99</v>
-      </c>
-      <c r="S4" s="34" t="s">
-        <v>99</v>
-      </c>
-      <c r="T4" s="34" t="s">
-        <v>99</v>
-      </c>
-      <c r="U4" s="34" t="s">
+      <c r="C4" s="66" t="s">
+        <v>99</v>
+      </c>
+      <c r="D4" s="66" t="s">
+        <v>99</v>
+      </c>
+      <c r="E4" s="66" t="s">
+        <v>99</v>
+      </c>
+      <c r="F4" s="66" t="s">
+        <v>99</v>
+      </c>
+      <c r="G4" s="66" t="s">
+        <v>99</v>
+      </c>
+      <c r="H4" s="66" t="s">
+        <v>99</v>
+      </c>
+      <c r="I4" s="66" t="s">
+        <v>99</v>
+      </c>
+      <c r="J4" s="66" t="s">
+        <v>99</v>
+      </c>
+      <c r="K4" s="66" t="s">
+        <v>99</v>
+      </c>
+      <c r="L4" s="66" t="s">
+        <v>99</v>
+      </c>
+      <c r="M4" s="66" t="s">
+        <v>99</v>
+      </c>
+      <c r="N4" s="66" t="s">
+        <v>99</v>
+      </c>
+      <c r="O4" s="66" t="s">
+        <v>99</v>
+      </c>
+      <c r="P4" s="66" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q4" s="66" t="s">
+        <v>99</v>
+      </c>
+      <c r="R4" s="66" t="s">
+        <v>99</v>
+      </c>
+      <c r="S4" s="66" t="s">
+        <v>99</v>
+      </c>
+      <c r="T4" s="66" t="s">
+        <v>99</v>
+      </c>
+      <c r="U4" s="66" t="s">
         <v>99</v>
       </c>
       <c r="V4" s="35" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="5" spans="1:27" ht="15.5">
-      <c r="A5" s="54"/>
+    <row r="5" spans="1:22" ht="15.5">
+      <c r="A5" s="52"/>
       <c r="B5" s="32">
         <v>1.1000000000000001</v>
       </c>
-      <c r="C5" s="33" t="s">
-        <v>100</v>
-      </c>
-      <c r="D5" s="33" t="s">
-        <v>100</v>
-      </c>
-      <c r="E5" s="33" t="s">
-        <v>100</v>
-      </c>
-      <c r="F5" s="33" t="s">
-        <v>100</v>
-      </c>
-      <c r="G5" s="33" t="s">
-        <v>100</v>
-      </c>
-      <c r="H5" s="33" t="s">
-        <v>100</v>
-      </c>
-      <c r="I5" s="33" t="s">
-        <v>100</v>
-      </c>
-      <c r="J5" s="33" t="s">
-        <v>100</v>
-      </c>
-      <c r="K5" s="33" t="s">
-        <v>100</v>
-      </c>
-      <c r="L5" s="33" t="s">
-        <v>100</v>
-      </c>
-      <c r="M5" s="33" t="s">
-        <v>100</v>
-      </c>
-      <c r="N5" s="33" t="s">
-        <v>100</v>
-      </c>
-      <c r="O5" s="33" t="s">
-        <v>100</v>
-      </c>
-      <c r="P5" s="33" t="s">
-        <v>100</v>
-      </c>
-      <c r="Q5" s="33" t="s">
-        <v>100</v>
-      </c>
-      <c r="R5" s="33" t="s">
-        <v>100</v>
-      </c>
-      <c r="S5" s="33" t="s">
-        <v>100</v>
-      </c>
-      <c r="T5" s="33" t="s">
-        <v>100</v>
-      </c>
-      <c r="U5" s="33" t="s">
+      <c r="C5" s="67" t="s">
+        <v>100</v>
+      </c>
+      <c r="D5" s="67" t="s">
+        <v>100</v>
+      </c>
+      <c r="E5" s="67" t="s">
+        <v>100</v>
+      </c>
+      <c r="F5" s="67" t="s">
+        <v>100</v>
+      </c>
+      <c r="G5" s="67" t="s">
+        <v>100</v>
+      </c>
+      <c r="H5" s="67" t="s">
+        <v>100</v>
+      </c>
+      <c r="I5" s="67" t="s">
+        <v>100</v>
+      </c>
+      <c r="J5" s="67" t="s">
+        <v>100</v>
+      </c>
+      <c r="K5" s="67" t="s">
+        <v>100</v>
+      </c>
+      <c r="L5" s="67" t="s">
+        <v>100</v>
+      </c>
+      <c r="M5" s="67" t="s">
+        <v>100</v>
+      </c>
+      <c r="N5" s="67" t="s">
+        <v>100</v>
+      </c>
+      <c r="O5" s="67" t="s">
+        <v>100</v>
+      </c>
+      <c r="P5" s="67" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q5" s="67" t="s">
+        <v>100</v>
+      </c>
+      <c r="R5" s="67" t="s">
+        <v>100</v>
+      </c>
+      <c r="S5" s="67" t="s">
+        <v>100</v>
+      </c>
+      <c r="T5" s="67" t="s">
+        <v>100</v>
+      </c>
+      <c r="U5" s="67" t="s">
         <v>100</v>
       </c>
       <c r="V5" s="35" t="s">
         <v>23</v>
       </c>
-      <c r="Y5" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="AA5" s="16" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="6" spans="1:27" ht="15.5">
-      <c r="A6" s="54"/>
+    </row>
+    <row r="6" spans="1:22" ht="15.5">
+      <c r="A6" s="52"/>
       <c r="B6" s="32">
         <v>1.2</v>
       </c>
-      <c r="C6" s="33"/>
-      <c r="D6" s="33"/>
-      <c r="E6" s="33"/>
-      <c r="F6" s="33"/>
-      <c r="G6" s="33"/>
-      <c r="H6" s="33" t="s">
-        <v>100</v>
-      </c>
-      <c r="I6" s="33"/>
-      <c r="J6" s="33"/>
-      <c r="K6" s="33" t="s">
-        <v>100</v>
-      </c>
-      <c r="L6" s="33"/>
-      <c r="M6" s="33" t="s">
-        <v>100</v>
-      </c>
-      <c r="N6" s="33"/>
-      <c r="O6" s="33"/>
-      <c r="P6" s="33" t="s">
-        <v>100</v>
-      </c>
-      <c r="Q6" s="33" t="s">
-        <v>100</v>
-      </c>
-      <c r="R6" s="33"/>
-      <c r="S6" s="33"/>
-      <c r="T6" s="33" t="s">
-        <v>100</v>
-      </c>
-      <c r="U6" s="33"/>
+      <c r="C6" s="67"/>
+      <c r="D6" s="67"/>
+      <c r="E6" s="67"/>
+      <c r="F6" s="67"/>
+      <c r="G6" s="67"/>
+      <c r="H6" s="67" t="s">
+        <v>100</v>
+      </c>
+      <c r="I6" s="67"/>
+      <c r="J6" s="67"/>
+      <c r="K6" s="67" t="s">
+        <v>100</v>
+      </c>
+      <c r="L6" s="67"/>
+      <c r="M6" s="67" t="s">
+        <v>100</v>
+      </c>
+      <c r="N6" s="67"/>
+      <c r="O6" s="67"/>
+      <c r="P6" s="67" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q6" s="67" t="s">
+        <v>100</v>
+      </c>
+      <c r="R6" s="67"/>
+      <c r="S6" s="67"/>
+      <c r="T6" s="67" t="s">
+        <v>100</v>
+      </c>
+      <c r="U6" s="67"/>
       <c r="V6" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="Y6" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="AA6" s="16" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="7" spans="1:27" ht="15.5">
-      <c r="A7" s="54"/>
+    </row>
+    <row r="7" spans="1:22" ht="15.5">
+      <c r="A7" s="52"/>
       <c r="B7" s="32">
         <v>1.3</v>
       </c>
-      <c r="C7" s="33"/>
-      <c r="D7" s="33"/>
-      <c r="E7" s="33"/>
-      <c r="F7" s="33"/>
-      <c r="G7" s="33"/>
-      <c r="H7" s="33"/>
-      <c r="I7" s="33"/>
-      <c r="J7" s="33"/>
-      <c r="K7" s="33" t="s">
-        <v>100</v>
-      </c>
-      <c r="L7" s="33"/>
-      <c r="M7" s="33"/>
-      <c r="N7" s="33"/>
-      <c r="O7" s="33"/>
-      <c r="P7" s="33"/>
-      <c r="Q7" s="33"/>
-      <c r="R7" s="33"/>
-      <c r="S7" s="33"/>
-      <c r="T7" s="33"/>
-      <c r="U7" s="33"/>
+      <c r="C7" s="67"/>
+      <c r="D7" s="67"/>
+      <c r="E7" s="67"/>
+      <c r="F7" s="67"/>
+      <c r="G7" s="67"/>
+      <c r="H7" s="67"/>
+      <c r="I7" s="67"/>
+      <c r="J7" s="67"/>
+      <c r="K7" s="67" t="s">
+        <v>100</v>
+      </c>
+      <c r="L7" s="67"/>
+      <c r="M7" s="67"/>
+      <c r="N7" s="67"/>
+      <c r="O7" s="67"/>
+      <c r="P7" s="67"/>
+      <c r="Q7" s="67"/>
+      <c r="R7" s="67"/>
+      <c r="S7" s="67"/>
+      <c r="T7" s="67"/>
+      <c r="U7" s="67"/>
       <c r="V7" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="Y7" s="16" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:27" ht="15.5">
-      <c r="A8" s="54"/>
+    </row>
+    <row r="8" spans="1:22" ht="15.5">
+      <c r="A8" s="52"/>
       <c r="B8" s="32">
         <v>1.4</v>
       </c>
-      <c r="C8" s="33"/>
-      <c r="D8" s="33"/>
-      <c r="E8" s="33"/>
-      <c r="F8" s="33"/>
-      <c r="G8" s="33"/>
-      <c r="H8" s="33"/>
-      <c r="I8" s="33"/>
-      <c r="J8" s="33"/>
-      <c r="K8" s="33" t="s">
-        <v>100</v>
-      </c>
-      <c r="L8" s="33"/>
-      <c r="M8" s="33"/>
-      <c r="N8" s="33"/>
-      <c r="O8" s="33"/>
-      <c r="P8" s="33"/>
-      <c r="Q8" s="33"/>
-      <c r="R8" s="33"/>
-      <c r="S8" s="33"/>
-      <c r="T8" s="33"/>
-      <c r="U8" s="33"/>
+      <c r="C8" s="67"/>
+      <c r="D8" s="67"/>
+      <c r="E8" s="67"/>
+      <c r="F8" s="67"/>
+      <c r="G8" s="67"/>
+      <c r="H8" s="67"/>
+      <c r="I8" s="67"/>
+      <c r="J8" s="67"/>
+      <c r="K8" s="67"/>
+      <c r="L8" s="67"/>
+      <c r="M8" s="67"/>
+      <c r="N8" s="67"/>
+      <c r="O8" s="67"/>
+      <c r="P8" s="67"/>
+      <c r="Q8" s="67"/>
+      <c r="R8" s="67"/>
+      <c r="S8" s="67"/>
+      <c r="T8" s="67"/>
+      <c r="U8" s="67"/>
       <c r="V8" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="Y8" s="16" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:27" ht="15.5">
-      <c r="A9" s="54" t="s">
-        <v>102</v>
+    </row>
+    <row r="9" spans="1:22" ht="15.5">
+      <c r="A9" s="52" t="s">
+        <v>101</v>
       </c>
       <c r="B9" s="33" t="s">
-        <v>102</v>
-      </c>
-      <c r="C9" s="34" t="s">
-        <v>99</v>
-      </c>
-      <c r="D9" s="34" t="s">
-        <v>99</v>
-      </c>
-      <c r="E9" s="34" t="s">
-        <v>99</v>
-      </c>
-      <c r="F9" s="34" t="s">
-        <v>99</v>
-      </c>
-      <c r="G9" s="34" t="s">
-        <v>99</v>
-      </c>
-      <c r="H9" s="34" t="s">
-        <v>99</v>
-      </c>
-      <c r="I9" s="34" t="s">
-        <v>99</v>
-      </c>
-      <c r="J9" s="34" t="s">
-        <v>99</v>
-      </c>
-      <c r="K9" s="34" t="s">
-        <v>99</v>
-      </c>
-      <c r="L9" s="34" t="s">
-        <v>99</v>
-      </c>
-      <c r="M9" s="34" t="s">
-        <v>99</v>
-      </c>
-      <c r="N9" s="34" t="s">
-        <v>99</v>
-      </c>
-      <c r="O9" s="34" t="s">
-        <v>99</v>
-      </c>
-      <c r="P9" s="34" t="s">
-        <v>99</v>
-      </c>
-      <c r="Q9" s="34" t="s">
-        <v>99</v>
-      </c>
-      <c r="R9" s="34" t="s">
-        <v>99</v>
-      </c>
-      <c r="S9" s="34" t="s">
-        <v>99</v>
-      </c>
-      <c r="T9" s="34" t="s">
-        <v>99</v>
-      </c>
-      <c r="U9" s="34" t="s">
+        <v>101</v>
+      </c>
+      <c r="C9" s="66" t="s">
+        <v>99</v>
+      </c>
+      <c r="D9" s="66" t="s">
+        <v>99</v>
+      </c>
+      <c r="E9" s="66" t="s">
+        <v>99</v>
+      </c>
+      <c r="F9" s="66" t="s">
+        <v>99</v>
+      </c>
+      <c r="G9" s="66" t="s">
+        <v>99</v>
+      </c>
+      <c r="H9" s="66" t="s">
+        <v>99</v>
+      </c>
+      <c r="I9" s="66" t="s">
+        <v>99</v>
+      </c>
+      <c r="J9" s="66" t="s">
+        <v>99</v>
+      </c>
+      <c r="K9" s="66" t="s">
+        <v>99</v>
+      </c>
+      <c r="L9" s="66" t="s">
+        <v>99</v>
+      </c>
+      <c r="M9" s="66" t="s">
+        <v>99</v>
+      </c>
+      <c r="N9" s="66" t="s">
+        <v>99</v>
+      </c>
+      <c r="O9" s="66" t="s">
+        <v>99</v>
+      </c>
+      <c r="P9" s="66" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q9" s="66" t="s">
+        <v>99</v>
+      </c>
+      <c r="R9" s="66" t="s">
+        <v>99</v>
+      </c>
+      <c r="S9" s="66" t="s">
+        <v>99</v>
+      </c>
+      <c r="T9" s="66" t="s">
+        <v>99</v>
+      </c>
+      <c r="U9" s="66" t="s">
         <v>99</v>
       </c>
       <c r="V9" s="35"/>
-      <c r="Y9" s="16" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="10" spans="1:27" ht="15.5">
-      <c r="A10" s="54"/>
+    </row>
+    <row r="10" spans="1:22" ht="15.5">
+      <c r="A10" s="52"/>
       <c r="B10" s="32">
         <v>2.1</v>
       </c>
-      <c r="C10" s="33" t="s">
-        <v>100</v>
-      </c>
-      <c r="D10" s="33" t="s">
-        <v>100</v>
-      </c>
-      <c r="E10" s="33" t="s">
-        <v>100</v>
-      </c>
-      <c r="F10" s="33" t="s">
-        <v>100</v>
-      </c>
-      <c r="G10" s="33" t="s">
-        <v>100</v>
-      </c>
-      <c r="H10" s="33" t="s">
-        <v>100</v>
-      </c>
-      <c r="I10" s="33" t="s">
-        <v>100</v>
-      </c>
-      <c r="J10" s="33" t="s">
-        <v>100</v>
-      </c>
-      <c r="K10" s="33" t="s">
-        <v>100</v>
-      </c>
-      <c r="L10" s="33" t="s">
-        <v>100</v>
-      </c>
-      <c r="M10" s="33" t="s">
-        <v>100</v>
-      </c>
-      <c r="N10" s="33" t="s">
-        <v>100</v>
-      </c>
-      <c r="O10" s="33" t="s">
-        <v>100</v>
-      </c>
-      <c r="P10" s="33" t="s">
-        <v>100</v>
-      </c>
-      <c r="Q10" s="33" t="s">
-        <v>100</v>
-      </c>
-      <c r="R10" s="33" t="s">
-        <v>100</v>
-      </c>
-      <c r="S10" s="33" t="s">
-        <v>100</v>
-      </c>
-      <c r="T10" s="33" t="s">
-        <v>100</v>
-      </c>
-      <c r="U10" s="33" t="s">
+      <c r="C10" s="67" t="s">
+        <v>100</v>
+      </c>
+      <c r="D10" s="67" t="s">
+        <v>100</v>
+      </c>
+      <c r="E10" s="67" t="s">
+        <v>100</v>
+      </c>
+      <c r="F10" s="67" t="s">
+        <v>100</v>
+      </c>
+      <c r="G10" s="67" t="s">
+        <v>100</v>
+      </c>
+      <c r="H10" s="67" t="s">
+        <v>100</v>
+      </c>
+      <c r="I10" s="67" t="s">
+        <v>100</v>
+      </c>
+      <c r="J10" s="67" t="s">
+        <v>100</v>
+      </c>
+      <c r="K10" s="67" t="s">
+        <v>100</v>
+      </c>
+      <c r="L10" s="67" t="s">
+        <v>100</v>
+      </c>
+      <c r="M10" s="67" t="s">
+        <v>100</v>
+      </c>
+      <c r="N10" s="67" t="s">
+        <v>100</v>
+      </c>
+      <c r="O10" s="67" t="s">
+        <v>100</v>
+      </c>
+      <c r="P10" s="67" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q10" s="67" t="s">
+        <v>100</v>
+      </c>
+      <c r="R10" s="67" t="s">
+        <v>100</v>
+      </c>
+      <c r="S10" s="67" t="s">
+        <v>100</v>
+      </c>
+      <c r="T10" s="67" t="s">
+        <v>100</v>
+      </c>
+      <c r="U10" s="67" t="s">
         <v>100</v>
       </c>
       <c r="V10" s="35" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:27" ht="15.5">
-      <c r="A11" s="54"/>
+    <row r="11" spans="1:22" ht="15.5">
+      <c r="A11" s="52"/>
       <c r="B11" s="32">
         <v>2.2000000000000002</v>
       </c>
-      <c r="C11" s="33" t="s">
-        <v>100</v>
-      </c>
-      <c r="D11" s="33" t="s">
-        <v>100</v>
-      </c>
-      <c r="E11" s="33" t="s">
-        <v>100</v>
-      </c>
-      <c r="F11" s="33" t="s">
-        <v>100</v>
-      </c>
-      <c r="G11" s="33" t="s">
-        <v>100</v>
-      </c>
-      <c r="H11" s="33" t="s">
-        <v>100</v>
-      </c>
-      <c r="I11" s="33" t="s">
-        <v>100</v>
-      </c>
-      <c r="J11" s="33" t="s">
-        <v>100</v>
-      </c>
-      <c r="K11" s="33" t="s">
-        <v>100</v>
-      </c>
-      <c r="L11" s="33" t="s">
-        <v>100</v>
-      </c>
-      <c r="M11" s="33" t="s">
-        <v>100</v>
-      </c>
-      <c r="N11" s="33" t="s">
-        <v>100</v>
-      </c>
-      <c r="O11" s="33" t="s">
-        <v>100</v>
-      </c>
-      <c r="P11" s="33" t="s">
-        <v>100</v>
-      </c>
-      <c r="Q11" s="33" t="s">
-        <v>100</v>
-      </c>
-      <c r="R11" s="33" t="s">
-        <v>100</v>
-      </c>
-      <c r="S11" s="33" t="s">
-        <v>100</v>
-      </c>
-      <c r="T11" s="33" t="s">
-        <v>100</v>
-      </c>
-      <c r="U11" s="33" t="s">
+      <c r="C11" s="67" t="s">
+        <v>100</v>
+      </c>
+      <c r="D11" s="67" t="s">
+        <v>100</v>
+      </c>
+      <c r="E11" s="67" t="s">
+        <v>100</v>
+      </c>
+      <c r="F11" s="67" t="s">
+        <v>100</v>
+      </c>
+      <c r="G11" s="67" t="s">
+        <v>100</v>
+      </c>
+      <c r="H11" s="67" t="s">
+        <v>100</v>
+      </c>
+      <c r="I11" s="67" t="s">
+        <v>100</v>
+      </c>
+      <c r="J11" s="67" t="s">
+        <v>100</v>
+      </c>
+      <c r="K11" s="67" t="s">
+        <v>100</v>
+      </c>
+      <c r="L11" s="67" t="s">
+        <v>100</v>
+      </c>
+      <c r="M11" s="67" t="s">
+        <v>100</v>
+      </c>
+      <c r="N11" s="67" t="s">
+        <v>100</v>
+      </c>
+      <c r="O11" s="67" t="s">
+        <v>100</v>
+      </c>
+      <c r="P11" s="67" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q11" s="67" t="s">
+        <v>100</v>
+      </c>
+      <c r="R11" s="67" t="s">
+        <v>100</v>
+      </c>
+      <c r="S11" s="67" t="s">
+        <v>100</v>
+      </c>
+      <c r="T11" s="67" t="s">
+        <v>100</v>
+      </c>
+      <c r="U11" s="67" t="s">
         <v>100</v>
       </c>
       <c r="V11" s="35" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:27" ht="15.5">
-      <c r="A12" s="54"/>
+    <row r="12" spans="1:22" ht="15.5">
+      <c r="A12" s="52"/>
       <c r="B12" s="32">
         <v>2.2999999999999998</v>
       </c>
-      <c r="C12" s="33" t="s">
-        <v>100</v>
-      </c>
-      <c r="D12" s="33"/>
-      <c r="E12" s="33" t="s">
-        <v>100</v>
-      </c>
-      <c r="F12" s="33" t="s">
-        <v>100</v>
-      </c>
-      <c r="G12" s="33" t="s">
-        <v>100</v>
-      </c>
-      <c r="H12" s="33" t="s">
-        <v>100</v>
-      </c>
-      <c r="I12" s="33" t="s">
-        <v>100</v>
-      </c>
-      <c r="J12" s="33" t="s">
-        <v>100</v>
-      </c>
-      <c r="K12" s="33"/>
-      <c r="L12" s="33" t="s">
-        <v>100</v>
-      </c>
-      <c r="M12" s="33" t="s">
-        <v>100</v>
-      </c>
-      <c r="N12" s="33"/>
-      <c r="O12" s="33"/>
-      <c r="P12" s="33" t="s">
-        <v>100</v>
-      </c>
-      <c r="Q12" s="33" t="s">
-        <v>100</v>
-      </c>
-      <c r="R12" s="33" t="s">
-        <v>100</v>
-      </c>
-      <c r="S12" s="33"/>
-      <c r="T12" s="33" t="s">
-        <v>100</v>
-      </c>
-      <c r="U12" s="33" t="s">
+      <c r="C12" s="67" t="s">
+        <v>100</v>
+      </c>
+      <c r="D12" s="67"/>
+      <c r="E12" s="67" t="s">
+        <v>100</v>
+      </c>
+      <c r="F12" s="67" t="s">
+        <v>100</v>
+      </c>
+      <c r="G12" s="67" t="s">
+        <v>100</v>
+      </c>
+      <c r="H12" s="67" t="s">
+        <v>100</v>
+      </c>
+      <c r="I12" s="67" t="s">
+        <v>100</v>
+      </c>
+      <c r="J12" s="67" t="s">
+        <v>100</v>
+      </c>
+      <c r="K12" s="67"/>
+      <c r="L12" s="67" t="s">
+        <v>100</v>
+      </c>
+      <c r="M12" s="67" t="s">
+        <v>100</v>
+      </c>
+      <c r="N12" s="67"/>
+      <c r="O12" s="67"/>
+      <c r="P12" s="67" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q12" s="67" t="s">
+        <v>100</v>
+      </c>
+      <c r="R12" s="67" t="s">
+        <v>100</v>
+      </c>
+      <c r="S12" s="67"/>
+      <c r="T12" s="67" t="s">
+        <v>100</v>
+      </c>
+      <c r="U12" s="67" t="s">
         <v>100</v>
       </c>
       <c r="V12" s="35" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:27" ht="15.5">
-      <c r="A13" s="54"/>
+    <row r="13" spans="1:22" ht="15.5">
+      <c r="A13" s="52"/>
       <c r="B13" s="32">
         <v>2.4</v>
       </c>
-      <c r="C13" s="33" t="s">
-        <v>100</v>
-      </c>
-      <c r="D13" s="33"/>
-      <c r="E13" s="33"/>
-      <c r="F13" s="33" t="s">
-        <v>100</v>
-      </c>
-      <c r="G13" s="33" t="s">
-        <v>100</v>
-      </c>
-      <c r="H13" s="33"/>
-      <c r="I13" s="33" t="s">
-        <v>100</v>
-      </c>
-      <c r="J13" s="33" t="s">
-        <v>100</v>
-      </c>
-      <c r="K13" s="33"/>
-      <c r="L13" s="33"/>
-      <c r="M13" s="33" t="s">
-        <v>100</v>
-      </c>
-      <c r="N13" s="33"/>
-      <c r="O13" s="33"/>
-      <c r="P13" s="33" t="s">
-        <v>100</v>
-      </c>
-      <c r="Q13" s="33" t="s">
-        <v>100</v>
-      </c>
-      <c r="R13" s="33"/>
-      <c r="S13" s="33"/>
-      <c r="T13" s="33" t="s">
-        <v>100</v>
-      </c>
-      <c r="U13" s="33" t="s">
+      <c r="C13" s="67" t="s">
+        <v>100</v>
+      </c>
+      <c r="D13" s="67"/>
+      <c r="E13" s="67"/>
+      <c r="F13" s="67" t="s">
+        <v>100</v>
+      </c>
+      <c r="G13" s="67" t="s">
+        <v>100</v>
+      </c>
+      <c r="H13" s="67"/>
+      <c r="I13" s="67" t="s">
+        <v>100</v>
+      </c>
+      <c r="J13" s="67" t="s">
+        <v>100</v>
+      </c>
+      <c r="K13" s="67"/>
+      <c r="L13" s="67"/>
+      <c r="M13" s="67" t="s">
+        <v>100</v>
+      </c>
+      <c r="N13" s="67"/>
+      <c r="O13" s="67"/>
+      <c r="P13" s="67" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q13" s="67" t="s">
+        <v>100</v>
+      </c>
+      <c r="R13" s="67"/>
+      <c r="S13" s="67"/>
+      <c r="T13" s="67" t="s">
+        <v>100</v>
+      </c>
+      <c r="U13" s="67" t="s">
         <v>100</v>
       </c>
       <c r="V13" s="35" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:27" ht="15.5">
-      <c r="A14" s="54"/>
+    <row r="14" spans="1:22" ht="15.5">
+      <c r="A14" s="52"/>
       <c r="B14" s="32">
         <v>2.5</v>
       </c>
-      <c r="C14" s="33"/>
-      <c r="D14" s="33"/>
-      <c r="E14" s="33"/>
-      <c r="F14" s="33" t="s">
-        <v>100</v>
-      </c>
-      <c r="G14" s="33"/>
-      <c r="H14" s="33"/>
-      <c r="I14" s="33"/>
-      <c r="J14" s="33" t="s">
-        <v>100</v>
-      </c>
-      <c r="K14" s="33"/>
-      <c r="L14" s="33"/>
-      <c r="M14" s="33" t="s">
-        <v>100</v>
-      </c>
-      <c r="N14" s="33"/>
-      <c r="O14" s="33"/>
-      <c r="P14" s="33"/>
-      <c r="Q14" s="33" t="s">
-        <v>100</v>
-      </c>
-      <c r="R14" s="33"/>
-      <c r="S14" s="33"/>
-      <c r="T14" s="33" t="s">
-        <v>100</v>
-      </c>
-      <c r="U14" s="33" t="s">
+      <c r="C14" s="67"/>
+      <c r="D14" s="67"/>
+      <c r="E14" s="67"/>
+      <c r="F14" s="67" t="s">
+        <v>100</v>
+      </c>
+      <c r="G14" s="67"/>
+      <c r="H14" s="67"/>
+      <c r="I14" s="67"/>
+      <c r="J14" s="67" t="s">
+        <v>100</v>
+      </c>
+      <c r="K14" s="67"/>
+      <c r="L14" s="67"/>
+      <c r="M14" s="67" t="s">
+        <v>100</v>
+      </c>
+      <c r="N14" s="67"/>
+      <c r="O14" s="67"/>
+      <c r="P14" s="67"/>
+      <c r="Q14" s="67" t="s">
+        <v>100</v>
+      </c>
+      <c r="R14" s="67"/>
+      <c r="S14" s="67"/>
+      <c r="T14" s="67" t="s">
+        <v>100</v>
+      </c>
+      <c r="U14" s="67" t="s">
         <v>100</v>
       </c>
       <c r="V14" s="35"/>
     </row>
-    <row r="15" spans="1:27" ht="15.5">
-      <c r="A15" s="54"/>
+    <row r="15" spans="1:22" ht="15.5">
+      <c r="A15" s="52"/>
       <c r="B15" s="32">
         <v>2.6</v>
       </c>
-      <c r="C15" s="33"/>
-      <c r="D15" s="33"/>
-      <c r="E15" s="33"/>
-      <c r="F15" s="33" t="s">
-        <v>100</v>
-      </c>
-      <c r="G15" s="33"/>
-      <c r="H15" s="33"/>
-      <c r="I15" s="33"/>
-      <c r="J15" s="33" t="s">
-        <v>100</v>
-      </c>
-      <c r="K15" s="33"/>
-      <c r="L15" s="33"/>
-      <c r="M15" s="33" t="s">
-        <v>100</v>
-      </c>
-      <c r="N15" s="33"/>
-      <c r="O15" s="33"/>
-      <c r="P15" s="33"/>
-      <c r="Q15" s="33" t="s">
-        <v>100</v>
-      </c>
-      <c r="R15" s="33"/>
-      <c r="S15" s="33"/>
-      <c r="T15" s="33"/>
-      <c r="U15" s="33"/>
+      <c r="C15" s="67"/>
+      <c r="D15" s="67"/>
+      <c r="E15" s="67"/>
+      <c r="F15" s="67" t="s">
+        <v>100</v>
+      </c>
+      <c r="G15" s="67"/>
+      <c r="H15" s="67"/>
+      <c r="I15" s="67"/>
+      <c r="J15" s="67" t="s">
+        <v>100</v>
+      </c>
+      <c r="K15" s="67"/>
+      <c r="L15" s="67"/>
+      <c r="M15" s="67" t="s">
+        <v>100</v>
+      </c>
+      <c r="N15" s="67"/>
+      <c r="O15" s="67"/>
+      <c r="P15" s="67"/>
+      <c r="Q15" s="67" t="s">
+        <v>100</v>
+      </c>
+      <c r="R15" s="67"/>
+      <c r="S15" s="67"/>
+      <c r="T15" s="67"/>
+      <c r="U15" s="67" t="s">
+        <v>100</v>
+      </c>
       <c r="V15" s="35"/>
     </row>
-    <row r="16" spans="1:27" ht="15.5">
-      <c r="A16" s="54"/>
+    <row r="16" spans="1:22" ht="15.5">
+      <c r="A16" s="52"/>
       <c r="B16" s="32">
         <v>2.7</v>
       </c>
-      <c r="C16" s="33"/>
-      <c r="D16" s="33"/>
-      <c r="E16" s="33"/>
-      <c r="F16" s="33"/>
-      <c r="G16" s="33"/>
-      <c r="H16" s="33"/>
-      <c r="I16" s="33"/>
-      <c r="J16" s="33"/>
-      <c r="K16" s="33"/>
-      <c r="L16" s="33"/>
-      <c r="M16" s="33"/>
-      <c r="N16" s="33"/>
-      <c r="O16" s="33"/>
-      <c r="P16" s="33"/>
-      <c r="Q16" s="33" t="s">
-        <v>100</v>
-      </c>
-      <c r="R16" s="33"/>
-      <c r="S16" s="33"/>
-      <c r="T16" s="33"/>
-      <c r="U16" s="33"/>
+      <c r="C16" s="67"/>
+      <c r="D16" s="67"/>
+      <c r="E16" s="67"/>
+      <c r="F16" s="67"/>
+      <c r="G16" s="67"/>
+      <c r="H16" s="67"/>
+      <c r="I16" s="67"/>
+      <c r="J16" s="67"/>
+      <c r="K16" s="67"/>
+      <c r="L16" s="67"/>
+      <c r="M16" s="67"/>
+      <c r="N16" s="67"/>
+      <c r="O16" s="67"/>
+      <c r="P16" s="67"/>
+      <c r="Q16" s="67" t="s">
+        <v>100</v>
+      </c>
+      <c r="R16" s="67"/>
+      <c r="S16" s="67"/>
+      <c r="T16" s="67"/>
+      <c r="U16" s="67"/>
       <c r="V16" s="35"/>
     </row>
     <row r="17" spans="1:22" ht="15.5">
-      <c r="A17" s="54"/>
+      <c r="A17" s="52"/>
       <c r="B17" s="32">
         <v>2.8</v>
       </c>
-      <c r="C17" s="33"/>
-      <c r="D17" s="33"/>
-      <c r="E17" s="33"/>
-      <c r="F17" s="33"/>
-      <c r="G17" s="33"/>
-      <c r="H17" s="33"/>
-      <c r="I17" s="33"/>
-      <c r="J17" s="33"/>
-      <c r="K17" s="33"/>
-      <c r="L17" s="33"/>
-      <c r="M17" s="33"/>
-      <c r="N17" s="33"/>
-      <c r="O17" s="33"/>
-      <c r="P17" s="33"/>
-      <c r="Q17" s="33" t="s">
-        <v>100</v>
-      </c>
-      <c r="R17" s="33"/>
-      <c r="S17" s="33"/>
-      <c r="T17" s="33"/>
-      <c r="U17" s="33"/>
+      <c r="C17" s="67"/>
+      <c r="D17" s="67"/>
+      <c r="E17" s="67"/>
+      <c r="F17" s="67"/>
+      <c r="G17" s="67"/>
+      <c r="H17" s="67"/>
+      <c r="I17" s="67"/>
+      <c r="J17" s="67"/>
+      <c r="K17" s="67"/>
+      <c r="L17" s="67"/>
+      <c r="M17" s="67"/>
+      <c r="N17" s="67"/>
+      <c r="O17" s="67"/>
+      <c r="P17" s="67"/>
+      <c r="Q17" s="67" t="s">
+        <v>100</v>
+      </c>
+      <c r="R17" s="67"/>
+      <c r="S17" s="67"/>
+      <c r="T17" s="67"/>
+      <c r="U17" s="67"/>
       <c r="V17" s="35"/>
     </row>
     <row r="18" spans="1:22" ht="15.5">
-      <c r="A18" s="54" t="s">
-        <v>103</v>
+      <c r="A18" s="52" t="s">
+        <v>102</v>
       </c>
       <c r="B18" s="33" t="s">
-        <v>103</v>
-      </c>
-      <c r="C18" s="34" t="s">
-        <v>99</v>
-      </c>
-      <c r="D18" s="34" t="s">
-        <v>99</v>
-      </c>
-      <c r="E18" s="34" t="s">
-        <v>99</v>
-      </c>
-      <c r="F18" s="34" t="s">
-        <v>99</v>
-      </c>
-      <c r="G18" s="34" t="s">
-        <v>99</v>
-      </c>
-      <c r="H18" s="34" t="s">
-        <v>99</v>
-      </c>
-      <c r="I18" s="34" t="s">
-        <v>99</v>
-      </c>
-      <c r="J18" s="34" t="s">
-        <v>99</v>
-      </c>
-      <c r="K18" s="34" t="s">
-        <v>99</v>
-      </c>
-      <c r="L18" s="34" t="s">
-        <v>99</v>
-      </c>
-      <c r="M18" s="34" t="s">
-        <v>99</v>
-      </c>
-      <c r="N18" s="34" t="s">
-        <v>99</v>
-      </c>
-      <c r="O18" s="34" t="s">
-        <v>99</v>
-      </c>
-      <c r="P18" s="34" t="s">
-        <v>99</v>
-      </c>
-      <c r="Q18" s="34" t="s">
-        <v>99</v>
-      </c>
-      <c r="R18" s="34" t="s">
-        <v>99</v>
-      </c>
-      <c r="S18" s="34" t="s">
-        <v>99</v>
-      </c>
-      <c r="T18" s="34" t="s">
-        <v>99</v>
-      </c>
-      <c r="U18" s="33"/>
+        <v>102</v>
+      </c>
+      <c r="C18" s="66" t="s">
+        <v>99</v>
+      </c>
+      <c r="D18" s="66" t="s">
+        <v>99</v>
+      </c>
+      <c r="E18" s="66" t="s">
+        <v>99</v>
+      </c>
+      <c r="F18" s="66" t="s">
+        <v>99</v>
+      </c>
+      <c r="G18" s="66" t="s">
+        <v>99</v>
+      </c>
+      <c r="H18" s="66" t="s">
+        <v>99</v>
+      </c>
+      <c r="I18" s="66" t="s">
+        <v>99</v>
+      </c>
+      <c r="J18" s="66" t="s">
+        <v>99</v>
+      </c>
+      <c r="K18" s="66" t="s">
+        <v>99</v>
+      </c>
+      <c r="L18" s="66" t="s">
+        <v>99</v>
+      </c>
+      <c r="M18" s="66" t="s">
+        <v>99</v>
+      </c>
+      <c r="N18" s="66" t="s">
+        <v>99</v>
+      </c>
+      <c r="O18" s="66" t="s">
+        <v>99</v>
+      </c>
+      <c r="P18" s="66" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q18" s="66" t="s">
+        <v>99</v>
+      </c>
+      <c r="R18" s="66" t="s">
+        <v>99</v>
+      </c>
+      <c r="S18" s="66" t="s">
+        <v>99</v>
+      </c>
+      <c r="T18" s="66" t="s">
+        <v>99</v>
+      </c>
+      <c r="U18" s="67"/>
       <c r="V18" s="35"/>
     </row>
     <row r="19" spans="1:22" ht="15.5">
-      <c r="A19" s="54"/>
+      <c r="A19" s="52"/>
       <c r="B19" s="32">
         <v>3.1</v>
       </c>
-      <c r="C19" s="33" t="s">
-        <v>100</v>
-      </c>
-      <c r="D19" s="33" t="s">
-        <v>100</v>
-      </c>
-      <c r="E19" s="33" t="s">
-        <v>100</v>
-      </c>
-      <c r="F19" s="33" t="s">
-        <v>100</v>
-      </c>
-      <c r="G19" s="33" t="s">
-        <v>100</v>
-      </c>
-      <c r="H19" s="33" t="s">
-        <v>100</v>
-      </c>
-      <c r="I19" s="33" t="s">
-        <v>100</v>
-      </c>
-      <c r="J19" s="33" t="s">
-        <v>100</v>
-      </c>
-      <c r="K19" s="33" t="s">
-        <v>100</v>
-      </c>
-      <c r="L19" s="33" t="s">
-        <v>100</v>
-      </c>
-      <c r="M19" s="33" t="s">
-        <v>100</v>
-      </c>
-      <c r="N19" s="33" t="s">
-        <v>100</v>
-      </c>
-      <c r="O19" s="33" t="s">
-        <v>100</v>
-      </c>
-      <c r="P19" s="33" t="s">
-        <v>100</v>
-      </c>
-      <c r="Q19" s="33" t="s">
-        <v>100</v>
-      </c>
-      <c r="R19" s="33" t="s">
-        <v>100</v>
-      </c>
-      <c r="S19" s="33" t="s">
-        <v>100</v>
-      </c>
-      <c r="T19" s="33" t="s">
-        <v>100</v>
-      </c>
-      <c r="U19" s="33"/>
+      <c r="C19" s="67" t="s">
+        <v>100</v>
+      </c>
+      <c r="D19" s="67" t="s">
+        <v>100</v>
+      </c>
+      <c r="E19" s="67" t="s">
+        <v>100</v>
+      </c>
+      <c r="F19" s="67" t="s">
+        <v>100</v>
+      </c>
+      <c r="G19" s="67" t="s">
+        <v>100</v>
+      </c>
+      <c r="H19" s="67" t="s">
+        <v>100</v>
+      </c>
+      <c r="I19" s="67" t="s">
+        <v>100</v>
+      </c>
+      <c r="J19" s="67" t="s">
+        <v>100</v>
+      </c>
+      <c r="K19" s="67" t="s">
+        <v>100</v>
+      </c>
+      <c r="L19" s="67" t="s">
+        <v>100</v>
+      </c>
+      <c r="M19" s="67" t="s">
+        <v>100</v>
+      </c>
+      <c r="N19" s="67" t="s">
+        <v>100</v>
+      </c>
+      <c r="O19" s="67" t="s">
+        <v>100</v>
+      </c>
+      <c r="P19" s="67" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q19" s="67" t="s">
+        <v>100</v>
+      </c>
+      <c r="R19" s="67" t="s">
+        <v>100</v>
+      </c>
+      <c r="S19" s="67" t="s">
+        <v>100</v>
+      </c>
+      <c r="T19" s="67" t="s">
+        <v>100</v>
+      </c>
+      <c r="U19" s="67"/>
       <c r="V19" s="35" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="20" spans="1:22" ht="15.5">
-      <c r="A20" s="54"/>
+      <c r="A20" s="52"/>
       <c r="B20" s="32">
         <v>3.2</v>
       </c>
-      <c r="C20" s="33" t="s">
-        <v>100</v>
-      </c>
-      <c r="D20" s="33" t="s">
-        <v>100</v>
-      </c>
-      <c r="E20" s="33" t="s">
-        <v>100</v>
-      </c>
-      <c r="F20" s="33" t="s">
-        <v>100</v>
-      </c>
-      <c r="G20" s="33"/>
-      <c r="H20" s="33"/>
-      <c r="I20" s="33"/>
-      <c r="J20" s="33" t="s">
-        <v>100</v>
-      </c>
-      <c r="K20" s="33" t="s">
-        <v>100</v>
-      </c>
-      <c r="L20" s="33" t="s">
-        <v>100</v>
-      </c>
-      <c r="M20" s="33" t="s">
-        <v>100</v>
-      </c>
-      <c r="N20" s="33" t="s">
-        <v>100</v>
-      </c>
-      <c r="O20" s="33" t="s">
-        <v>100</v>
-      </c>
-      <c r="P20" s="33" t="s">
-        <v>100</v>
-      </c>
-      <c r="Q20" s="33" t="s">
-        <v>100</v>
-      </c>
-      <c r="R20" s="33" t="s">
-        <v>100</v>
-      </c>
-      <c r="S20" s="33" t="s">
-        <v>100</v>
-      </c>
-      <c r="T20" s="33"/>
-      <c r="U20" s="33"/>
+      <c r="C20" s="67" t="s">
+        <v>100</v>
+      </c>
+      <c r="D20" s="67" t="s">
+        <v>100</v>
+      </c>
+      <c r="E20" s="67" t="s">
+        <v>100</v>
+      </c>
+      <c r="F20" s="67" t="s">
+        <v>100</v>
+      </c>
+      <c r="G20" s="67"/>
+      <c r="H20" s="67"/>
+      <c r="I20" s="67"/>
+      <c r="J20" s="67" t="s">
+        <v>100</v>
+      </c>
+      <c r="K20" s="67" t="s">
+        <v>100</v>
+      </c>
+      <c r="L20" s="67" t="s">
+        <v>100</v>
+      </c>
+      <c r="M20" s="67" t="s">
+        <v>100</v>
+      </c>
+      <c r="N20" s="67" t="s">
+        <v>100</v>
+      </c>
+      <c r="O20" s="67" t="s">
+        <v>100</v>
+      </c>
+      <c r="P20" s="67" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q20" s="67" t="s">
+        <v>100</v>
+      </c>
+      <c r="R20" s="67" t="s">
+        <v>100</v>
+      </c>
+      <c r="S20" s="67" t="s">
+        <v>100</v>
+      </c>
+      <c r="T20" s="67"/>
+      <c r="U20" s="67"/>
       <c r="V20" s="35" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="21" spans="1:22" ht="15.5">
-      <c r="A21" s="54"/>
+      <c r="A21" s="52"/>
       <c r="B21" s="32">
         <v>3.3</v>
       </c>
-      <c r="C21" s="33"/>
-      <c r="D21" s="33" t="s">
-        <v>100</v>
-      </c>
-      <c r="E21" s="33" t="s">
-        <v>100</v>
-      </c>
-      <c r="F21" s="33" t="s">
-        <v>100</v>
-      </c>
-      <c r="G21" s="33"/>
-      <c r="H21" s="33"/>
-      <c r="I21" s="33"/>
-      <c r="J21" s="33" t="s">
-        <v>100</v>
-      </c>
-      <c r="K21" s="33" t="s">
-        <v>100</v>
-      </c>
-      <c r="L21" s="33" t="s">
-        <v>100</v>
-      </c>
-      <c r="M21" s="33" t="s">
-        <v>100</v>
-      </c>
-      <c r="N21" s="33" t="s">
-        <v>100</v>
-      </c>
-      <c r="O21" s="33" t="s">
-        <v>100</v>
-      </c>
-      <c r="P21" s="33" t="s">
-        <v>100</v>
-      </c>
-      <c r="Q21" s="33" t="s">
-        <v>100</v>
-      </c>
-      <c r="R21" s="33"/>
-      <c r="S21" s="33" t="s">
-        <v>100</v>
-      </c>
-      <c r="T21" s="33"/>
-      <c r="U21" s="33"/>
+      <c r="C21" s="67"/>
+      <c r="D21" s="67" t="s">
+        <v>100</v>
+      </c>
+      <c r="E21" s="67" t="s">
+        <v>100</v>
+      </c>
+      <c r="F21" s="67" t="s">
+        <v>100</v>
+      </c>
+      <c r="G21" s="67"/>
+      <c r="H21" s="67"/>
+      <c r="I21" s="67"/>
+      <c r="J21" s="67" t="s">
+        <v>100</v>
+      </c>
+      <c r="K21" s="67" t="s">
+        <v>100</v>
+      </c>
+      <c r="L21" s="67" t="s">
+        <v>100</v>
+      </c>
+      <c r="M21" s="67" t="s">
+        <v>100</v>
+      </c>
+      <c r="N21" s="67" t="s">
+        <v>100</v>
+      </c>
+      <c r="O21" s="67" t="s">
+        <v>100</v>
+      </c>
+      <c r="P21" s="67" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q21" s="67" t="s">
+        <v>100</v>
+      </c>
+      <c r="R21" s="67"/>
+      <c r="S21" s="67" t="s">
+        <v>100</v>
+      </c>
+      <c r="T21" s="67"/>
+      <c r="U21" s="67"/>
       <c r="V21" s="35"/>
     </row>
     <row r="22" spans="1:22" ht="15.5">
-      <c r="A22" s="54"/>
+      <c r="A22" s="52"/>
       <c r="B22" s="32">
         <v>3.4</v>
       </c>
-      <c r="C22" s="33"/>
-      <c r="D22" s="33"/>
-      <c r="E22" s="33" t="s">
-        <v>100</v>
-      </c>
-      <c r="F22" s="33"/>
-      <c r="G22" s="33"/>
-      <c r="H22" s="33"/>
-      <c r="I22" s="33"/>
-      <c r="J22" s="33" t="s">
-        <v>100</v>
-      </c>
-      <c r="K22" s="33" t="s">
-        <v>100</v>
-      </c>
-      <c r="L22" s="33" t="s">
-        <v>100</v>
-      </c>
-      <c r="M22" s="33" t="s">
-        <v>100</v>
-      </c>
-      <c r="N22" s="33" t="s">
-        <v>100</v>
-      </c>
-      <c r="O22" s="33" t="s">
-        <v>100</v>
-      </c>
-      <c r="P22" s="33" t="s">
-        <v>100</v>
-      </c>
-      <c r="Q22" s="33" t="s">
-        <v>100</v>
-      </c>
-      <c r="R22" s="33"/>
-      <c r="S22" s="33" t="s">
-        <v>100</v>
-      </c>
-      <c r="T22" s="33"/>
-      <c r="U22" s="33"/>
+      <c r="C22" s="67"/>
+      <c r="D22" s="67"/>
+      <c r="E22" s="67" t="s">
+        <v>100</v>
+      </c>
+      <c r="F22" s="67"/>
+      <c r="G22" s="67"/>
+      <c r="H22" s="67"/>
+      <c r="I22" s="67"/>
+      <c r="J22" s="67" t="s">
+        <v>100</v>
+      </c>
+      <c r="K22" s="67" t="s">
+        <v>100</v>
+      </c>
+      <c r="L22" s="67" t="s">
+        <v>100</v>
+      </c>
+      <c r="M22" s="67" t="s">
+        <v>100</v>
+      </c>
+      <c r="N22" s="67" t="s">
+        <v>100</v>
+      </c>
+      <c r="O22" s="67" t="s">
+        <v>100</v>
+      </c>
+      <c r="P22" s="67" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q22" s="67" t="s">
+        <v>100</v>
+      </c>
+      <c r="R22" s="67"/>
+      <c r="S22" s="67" t="s">
+        <v>100</v>
+      </c>
+      <c r="T22" s="67"/>
+      <c r="U22" s="67"/>
       <c r="V22" s="35"/>
     </row>
     <row r="23" spans="1:22" ht="15.5">
-      <c r="A23" s="54"/>
+      <c r="A23" s="52"/>
       <c r="B23" s="32">
         <v>3.5</v>
       </c>
-      <c r="C23" s="33"/>
-      <c r="D23" s="33"/>
-      <c r="E23" s="33" t="s">
-        <v>100</v>
-      </c>
-      <c r="F23" s="33"/>
-      <c r="G23" s="33"/>
-      <c r="H23" s="33"/>
-      <c r="I23" s="33"/>
-      <c r="J23" s="33" t="s">
-        <v>100</v>
-      </c>
-      <c r="K23" s="33" t="s">
-        <v>100</v>
-      </c>
-      <c r="L23" s="33" t="s">
-        <v>100</v>
-      </c>
-      <c r="M23" s="33" t="s">
-        <v>100</v>
-      </c>
-      <c r="N23" s="33" t="s">
-        <v>100</v>
-      </c>
-      <c r="O23" s="33" t="s">
-        <v>100</v>
-      </c>
-      <c r="P23" s="33"/>
-      <c r="Q23" s="33"/>
-      <c r="R23" s="33"/>
-      <c r="S23" s="33" t="s">
-        <v>100</v>
-      </c>
-      <c r="T23" s="33"/>
-      <c r="U23" s="33"/>
+      <c r="C23" s="67"/>
+      <c r="D23" s="67"/>
+      <c r="E23" s="67" t="s">
+        <v>100</v>
+      </c>
+      <c r="F23" s="67"/>
+      <c r="G23" s="67"/>
+      <c r="H23" s="67"/>
+      <c r="I23" s="67"/>
+      <c r="J23" s="67" t="s">
+        <v>100</v>
+      </c>
+      <c r="K23" s="67" t="s">
+        <v>100</v>
+      </c>
+      <c r="L23" s="67" t="s">
+        <v>100</v>
+      </c>
+      <c r="M23" s="67" t="s">
+        <v>100</v>
+      </c>
+      <c r="N23" s="67" t="s">
+        <v>100</v>
+      </c>
+      <c r="O23" s="67" t="s">
+        <v>100</v>
+      </c>
+      <c r="P23" s="67"/>
+      <c r="Q23" s="67"/>
+      <c r="R23" s="67"/>
+      <c r="S23" s="67" t="s">
+        <v>100</v>
+      </c>
+      <c r="T23" s="67"/>
+      <c r="U23" s="67"/>
       <c r="V23" s="35"/>
     </row>
     <row r="24" spans="1:22" ht="15.5">
-      <c r="A24" s="54"/>
+      <c r="A24" s="52"/>
       <c r="B24" s="32">
         <v>3.6</v>
       </c>
-      <c r="C24" s="33"/>
-      <c r="D24" s="33"/>
-      <c r="E24" s="33" t="s">
-        <v>100</v>
-      </c>
-      <c r="F24" s="33"/>
-      <c r="G24" s="33"/>
-      <c r="H24" s="33"/>
-      <c r="I24" s="33"/>
-      <c r="J24" s="33" t="s">
-        <v>100</v>
-      </c>
-      <c r="K24" s="33" t="s">
-        <v>100</v>
-      </c>
-      <c r="L24" s="33" t="s">
-        <v>100</v>
-      </c>
-      <c r="M24" s="33" t="s">
-        <v>100</v>
-      </c>
-      <c r="N24" s="33"/>
-      <c r="O24" s="33" t="s">
-        <v>100</v>
-      </c>
-      <c r="P24" s="33"/>
-      <c r="Q24" s="33"/>
-      <c r="R24" s="33"/>
-      <c r="S24" s="33"/>
-      <c r="T24" s="33"/>
-      <c r="U24" s="33"/>
+      <c r="C24" s="67"/>
+      <c r="D24" s="67"/>
+      <c r="E24" s="67" t="s">
+        <v>100</v>
+      </c>
+      <c r="F24" s="67"/>
+      <c r="G24" s="67"/>
+      <c r="H24" s="67"/>
+      <c r="I24" s="67"/>
+      <c r="J24" s="67" t="s">
+        <v>100</v>
+      </c>
+      <c r="K24" s="67" t="s">
+        <v>100</v>
+      </c>
+      <c r="L24" s="67" t="s">
+        <v>100</v>
+      </c>
+      <c r="M24" s="67" t="s">
+        <v>100</v>
+      </c>
+      <c r="N24" s="67"/>
+      <c r="O24" s="67" t="s">
+        <v>100</v>
+      </c>
+      <c r="P24" s="67"/>
+      <c r="Q24" s="67"/>
+      <c r="R24" s="67"/>
+      <c r="S24" s="67"/>
+      <c r="T24" s="67"/>
+      <c r="U24" s="67"/>
       <c r="V24" s="35"/>
     </row>
     <row r="25" spans="1:22" ht="15.5">
-      <c r="A25" s="54"/>
+      <c r="A25" s="52"/>
       <c r="B25" s="32">
         <v>3.7</v>
       </c>
-      <c r="C25" s="33"/>
-      <c r="D25" s="33"/>
-      <c r="E25" s="33"/>
-      <c r="F25" s="33"/>
-      <c r="G25" s="33"/>
-      <c r="H25" s="33"/>
-      <c r="I25" s="33"/>
-      <c r="J25" s="33" t="s">
-        <v>100</v>
-      </c>
-      <c r="K25" s="33"/>
-      <c r="L25" s="33" t="s">
-        <v>100</v>
-      </c>
-      <c r="M25" s="33"/>
-      <c r="N25" s="33"/>
-      <c r="O25" s="33"/>
-      <c r="P25" s="33"/>
-      <c r="Q25" s="33"/>
-      <c r="R25" s="33"/>
-      <c r="S25" s="33"/>
-      <c r="T25" s="33"/>
-      <c r="U25" s="33"/>
+      <c r="C25" s="67"/>
+      <c r="D25" s="67"/>
+      <c r="E25" s="67"/>
+      <c r="F25" s="67"/>
+      <c r="G25" s="67"/>
+      <c r="H25" s="67"/>
+      <c r="I25" s="67"/>
+      <c r="J25" s="67" t="s">
+        <v>100</v>
+      </c>
+      <c r="K25" s="67"/>
+      <c r="L25" s="67" t="s">
+        <v>100</v>
+      </c>
+      <c r="M25" s="67"/>
+      <c r="N25" s="67"/>
+      <c r="O25" s="67"/>
+      <c r="P25" s="67"/>
+      <c r="Q25" s="67"/>
+      <c r="R25" s="67"/>
+      <c r="S25" s="67"/>
+      <c r="T25" s="67"/>
+      <c r="U25" s="67"/>
       <c r="V25" s="35"/>
     </row>
     <row r="26" spans="1:22" ht="15.5">
-      <c r="A26" s="54" t="s">
+      <c r="A26" s="52" t="s">
+        <v>103</v>
+      </c>
+      <c r="B26" s="33" t="s">
         <v>104</v>
       </c>
-      <c r="B26" s="33" t="s">
-        <v>105</v>
-      </c>
-      <c r="C26" s="34" t="s">
-        <v>99</v>
-      </c>
-      <c r="D26" s="33"/>
-      <c r="E26" s="33"/>
-      <c r="F26" s="33"/>
-      <c r="G26" s="33"/>
-      <c r="H26" s="33"/>
-      <c r="I26" s="33"/>
-      <c r="J26" s="33"/>
-      <c r="K26" s="34" t="s">
-        <v>99</v>
-      </c>
-      <c r="L26" s="33"/>
-      <c r="M26" s="34" t="s">
-        <v>99</v>
-      </c>
-      <c r="N26" s="33"/>
-      <c r="O26" s="33"/>
-      <c r="P26" s="33"/>
-      <c r="Q26" s="34" t="s">
-        <v>99</v>
-      </c>
-      <c r="R26" s="33"/>
-      <c r="S26" s="34" t="s">
-        <v>99</v>
-      </c>
-      <c r="T26" s="33"/>
-      <c r="U26" s="33"/>
+      <c r="C26" s="66" t="s">
+        <v>99</v>
+      </c>
+      <c r="D26" s="67"/>
+      <c r="E26" s="67"/>
+      <c r="F26" s="67"/>
+      <c r="G26" s="67"/>
+      <c r="H26" s="67"/>
+      <c r="I26" s="67"/>
+      <c r="J26" s="67"/>
+      <c r="K26" s="66" t="s">
+        <v>99</v>
+      </c>
+      <c r="L26" s="67"/>
+      <c r="M26" s="66" t="s">
+        <v>99</v>
+      </c>
+      <c r="N26" s="67"/>
+      <c r="O26" s="67"/>
+      <c r="P26" s="67"/>
+      <c r="Q26" s="66" t="s">
+        <v>99</v>
+      </c>
+      <c r="R26" s="67"/>
+      <c r="S26" s="66" t="s">
+        <v>99</v>
+      </c>
+      <c r="T26" s="67"/>
+      <c r="U26" s="67"/>
       <c r="V26" s="35"/>
     </row>
     <row r="27" spans="1:22" ht="15.5">
-      <c r="A27" s="54"/>
+      <c r="A27" s="52"/>
       <c r="B27" s="32">
         <v>4.0999999999999996</v>
       </c>
-      <c r="C27" s="33" t="s">
-        <v>100</v>
-      </c>
-      <c r="D27" s="33"/>
-      <c r="E27" s="33"/>
-      <c r="F27" s="33"/>
-      <c r="G27" s="33"/>
-      <c r="H27" s="33"/>
-      <c r="I27" s="33"/>
-      <c r="J27" s="33"/>
-      <c r="K27" s="33" t="s">
-        <v>100</v>
-      </c>
-      <c r="L27" s="33"/>
-      <c r="M27" s="33" t="s">
-        <v>100</v>
-      </c>
-      <c r="N27" s="33"/>
-      <c r="O27" s="33"/>
-      <c r="P27" s="33"/>
-      <c r="Q27" s="33" t="s">
-        <v>100</v>
-      </c>
-      <c r="R27" s="33"/>
-      <c r="S27" s="33" t="s">
-        <v>100</v>
-      </c>
-      <c r="T27" s="33"/>
-      <c r="U27" s="33"/>
+      <c r="C27" s="67" t="s">
+        <v>100</v>
+      </c>
+      <c r="D27" s="67"/>
+      <c r="E27" s="67"/>
+      <c r="F27" s="67"/>
+      <c r="G27" s="67"/>
+      <c r="H27" s="67"/>
+      <c r="I27" s="67"/>
+      <c r="J27" s="67"/>
+      <c r="K27" s="67" t="s">
+        <v>100</v>
+      </c>
+      <c r="L27" s="67"/>
+      <c r="M27" s="67" t="s">
+        <v>100</v>
+      </c>
+      <c r="N27" s="67"/>
+      <c r="O27" s="67"/>
+      <c r="P27" s="67"/>
+      <c r="Q27" s="67" t="s">
+        <v>100</v>
+      </c>
+      <c r="R27" s="67"/>
+      <c r="S27" s="67" t="s">
+        <v>100</v>
+      </c>
+      <c r="T27" s="67"/>
+      <c r="U27" s="67"/>
       <c r="V27" s="35" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="28" spans="1:22" ht="15.5">
-      <c r="A28" s="54"/>
+      <c r="A28" s="52"/>
       <c r="B28" s="32">
         <v>4.2</v>
       </c>
-      <c r="C28" s="33"/>
-      <c r="D28" s="33"/>
-      <c r="E28" s="33"/>
-      <c r="F28" s="33"/>
-      <c r="G28" s="33"/>
-      <c r="H28" s="33"/>
-      <c r="I28" s="33"/>
-      <c r="J28" s="33"/>
-      <c r="K28" s="33"/>
-      <c r="L28" s="33"/>
-      <c r="M28" s="33" t="s">
-        <v>100</v>
-      </c>
-      <c r="N28" s="33"/>
-      <c r="O28" s="33"/>
-      <c r="P28" s="33"/>
-      <c r="Q28" s="33"/>
-      <c r="R28" s="33"/>
-      <c r="S28" s="33" t="s">
-        <v>100</v>
-      </c>
-      <c r="T28" s="33"/>
-      <c r="U28" s="33"/>
+      <c r="C28" s="67"/>
+      <c r="D28" s="67"/>
+      <c r="E28" s="67"/>
+      <c r="F28" s="67"/>
+      <c r="G28" s="67"/>
+      <c r="H28" s="67"/>
+      <c r="I28" s="67"/>
+      <c r="J28" s="67"/>
+      <c r="K28" s="67"/>
+      <c r="L28" s="67"/>
+      <c r="M28" s="67" t="s">
+        <v>100</v>
+      </c>
+      <c r="N28" s="67"/>
+      <c r="O28" s="67"/>
+      <c r="P28" s="67"/>
+      <c r="Q28" s="67"/>
+      <c r="R28" s="67"/>
+      <c r="S28" s="67" t="s">
+        <v>100</v>
+      </c>
+      <c r="T28" s="67"/>
+      <c r="U28" s="67"/>
       <c r="V28" s="35"/>
     </row>
     <row r="29" spans="1:22" ht="15.5">
-      <c r="A29" s="54"/>
+      <c r="A29" s="52"/>
       <c r="B29" s="32">
         <v>4.3</v>
       </c>
-      <c r="C29" s="33"/>
-      <c r="D29" s="33"/>
-      <c r="E29" s="33"/>
-      <c r="F29" s="33"/>
-      <c r="G29" s="33"/>
-      <c r="H29" s="33"/>
-      <c r="I29" s="33"/>
-      <c r="J29" s="33"/>
-      <c r="K29" s="33"/>
-      <c r="L29" s="33"/>
-      <c r="M29" s="33" t="s">
-        <v>100</v>
-      </c>
-      <c r="N29" s="33"/>
-      <c r="O29" s="33"/>
-      <c r="P29" s="33"/>
-      <c r="Q29" s="33"/>
-      <c r="R29" s="33"/>
-      <c r="S29" s="33"/>
-      <c r="T29" s="33"/>
-      <c r="U29" s="33"/>
+      <c r="C29" s="67"/>
+      <c r="D29" s="67"/>
+      <c r="E29" s="67"/>
+      <c r="F29" s="67"/>
+      <c r="G29" s="67"/>
+      <c r="H29" s="67"/>
+      <c r="I29" s="67"/>
+      <c r="J29" s="67"/>
+      <c r="K29" s="67"/>
+      <c r="L29" s="67"/>
+      <c r="M29" s="67" t="s">
+        <v>100</v>
+      </c>
+      <c r="N29" s="67"/>
+      <c r="O29" s="67"/>
+      <c r="P29" s="67"/>
+      <c r="Q29" s="67"/>
+      <c r="R29" s="67"/>
+      <c r="S29" s="67"/>
+      <c r="T29" s="67"/>
+      <c r="U29" s="67"/>
       <c r="V29" s="35"/>
     </row>
     <row r="30" spans="1:22" ht="15.5">
-      <c r="A30" s="54"/>
+      <c r="A30" s="52"/>
       <c r="B30" s="32">
         <v>4.4000000000000004</v>
       </c>
-      <c r="C30" s="33"/>
-      <c r="D30" s="33"/>
-      <c r="E30" s="33"/>
-      <c r="F30" s="33"/>
-      <c r="G30" s="33"/>
-      <c r="H30" s="33"/>
-      <c r="I30" s="33"/>
-      <c r="J30" s="33"/>
-      <c r="K30" s="33"/>
-      <c r="L30" s="33"/>
-      <c r="M30" s="33" t="s">
-        <v>100</v>
-      </c>
-      <c r="N30" s="33"/>
-      <c r="O30" s="33"/>
-      <c r="P30" s="33"/>
-      <c r="Q30" s="33"/>
-      <c r="R30" s="33"/>
-      <c r="S30" s="33"/>
-      <c r="T30" s="33"/>
-      <c r="U30" s="33"/>
+      <c r="C30" s="67"/>
+      <c r="D30" s="67"/>
+      <c r="E30" s="67"/>
+      <c r="F30" s="67"/>
+      <c r="G30" s="67"/>
+      <c r="H30" s="67"/>
+      <c r="I30" s="67"/>
+      <c r="J30" s="67"/>
+      <c r="K30" s="67"/>
+      <c r="L30" s="67"/>
+      <c r="M30" s="67" t="s">
+        <v>100</v>
+      </c>
+      <c r="N30" s="67"/>
+      <c r="O30" s="67"/>
+      <c r="P30" s="67"/>
+      <c r="Q30" s="67"/>
+      <c r="R30" s="67"/>
+      <c r="S30" s="67"/>
+      <c r="T30" s="67"/>
+      <c r="U30" s="67"/>
       <c r="V30" s="35"/>
     </row>
     <row r="31" spans="1:22" ht="15.5">
-      <c r="A31" s="54"/>
+      <c r="A31" s="52"/>
       <c r="B31" s="32">
         <v>4.5</v>
       </c>
-      <c r="C31" s="33"/>
-      <c r="D31" s="33"/>
-      <c r="E31" s="33"/>
-      <c r="F31" s="33"/>
-      <c r="G31" s="33"/>
-      <c r="H31" s="33"/>
-      <c r="I31" s="33"/>
-      <c r="J31" s="33"/>
-      <c r="K31" s="33"/>
-      <c r="L31" s="33"/>
-      <c r="M31" s="33" t="s">
-        <v>100</v>
-      </c>
-      <c r="N31" s="33"/>
-      <c r="O31" s="33"/>
-      <c r="P31" s="33"/>
-      <c r="Q31" s="33"/>
-      <c r="R31" s="33"/>
-      <c r="S31" s="33"/>
-      <c r="T31" s="33"/>
-      <c r="U31" s="33"/>
+      <c r="C31" s="67"/>
+      <c r="D31" s="67"/>
+      <c r="E31" s="67"/>
+      <c r="F31" s="67"/>
+      <c r="G31" s="67"/>
+      <c r="H31" s="67"/>
+      <c r="I31" s="67"/>
+      <c r="J31" s="67"/>
+      <c r="K31" s="67"/>
+      <c r="L31" s="67"/>
+      <c r="M31" s="67" t="s">
+        <v>100</v>
+      </c>
+      <c r="N31" s="67"/>
+      <c r="O31" s="67"/>
+      <c r="P31" s="67"/>
+      <c r="Q31" s="67"/>
+      <c r="R31" s="67"/>
+      <c r="S31" s="67"/>
+      <c r="T31" s="67"/>
+      <c r="U31" s="67"/>
       <c r="V31" s="35"/>
     </row>
     <row r="32" spans="1:22" ht="15.5">
-      <c r="A32" s="54" t="s">
-        <v>106</v>
+      <c r="A32" s="52" t="s">
+        <v>105</v>
       </c>
       <c r="B32" s="33" t="s">
-        <v>106</v>
-      </c>
-      <c r="C32" s="33"/>
-      <c r="D32" s="33"/>
-      <c r="E32" s="33"/>
-      <c r="F32" s="33"/>
-      <c r="G32" s="33"/>
-      <c r="H32" s="33"/>
-      <c r="I32" s="33"/>
-      <c r="J32" s="33"/>
-      <c r="K32" s="33"/>
-      <c r="L32" s="33"/>
-      <c r="M32" s="34" t="s">
-        <v>99</v>
-      </c>
-      <c r="N32" s="33"/>
-      <c r="O32" s="33"/>
-      <c r="P32" s="33"/>
-      <c r="Q32" s="33"/>
-      <c r="R32" s="33"/>
-      <c r="S32" s="34" t="s">
-        <v>99</v>
-      </c>
-      <c r="T32" s="33"/>
-      <c r="U32" s="33"/>
+        <v>105</v>
+      </c>
+      <c r="C32" s="67"/>
+      <c r="D32" s="67"/>
+      <c r="E32" s="67"/>
+      <c r="F32" s="67"/>
+      <c r="G32" s="67"/>
+      <c r="H32" s="67"/>
+      <c r="I32" s="67"/>
+      <c r="J32" s="67"/>
+      <c r="K32" s="67"/>
+      <c r="L32" s="67"/>
+      <c r="M32" s="66" t="s">
+        <v>99</v>
+      </c>
+      <c r="N32" s="67"/>
+      <c r="O32" s="67"/>
+      <c r="P32" s="67"/>
+      <c r="Q32" s="67"/>
+      <c r="R32" s="67"/>
+      <c r="S32" s="66" t="s">
+        <v>99</v>
+      </c>
+      <c r="T32" s="67"/>
+      <c r="U32" s="67"/>
       <c r="V32" s="35"/>
     </row>
     <row r="33" spans="1:22" ht="15.5">
-      <c r="A33" s="54"/>
+      <c r="A33" s="52"/>
       <c r="B33" s="32">
         <v>5.0999999999999996</v>
       </c>
-      <c r="C33" s="33"/>
-      <c r="D33" s="33"/>
-      <c r="E33" s="33"/>
-      <c r="F33" s="33"/>
-      <c r="G33" s="33"/>
-      <c r="H33" s="33"/>
-      <c r="I33" s="33"/>
-      <c r="J33" s="33"/>
-      <c r="K33" s="33"/>
-      <c r="L33" s="33"/>
-      <c r="M33" s="33" t="s">
-        <v>100</v>
-      </c>
-      <c r="N33" s="33"/>
-      <c r="O33" s="33"/>
-      <c r="P33" s="33"/>
-      <c r="Q33" s="33"/>
-      <c r="R33" s="33"/>
-      <c r="S33" s="33" t="s">
-        <v>100</v>
-      </c>
-      <c r="T33" s="33"/>
-      <c r="U33" s="33"/>
+      <c r="C33" s="67"/>
+      <c r="D33" s="67"/>
+      <c r="E33" s="67"/>
+      <c r="F33" s="67"/>
+      <c r="G33" s="67"/>
+      <c r="H33" s="67"/>
+      <c r="I33" s="67"/>
+      <c r="J33" s="67"/>
+      <c r="K33" s="67"/>
+      <c r="L33" s="67"/>
+      <c r="M33" s="67" t="s">
+        <v>100</v>
+      </c>
+      <c r="N33" s="67"/>
+      <c r="O33" s="67"/>
+      <c r="P33" s="67"/>
+      <c r="Q33" s="67"/>
+      <c r="R33" s="67"/>
+      <c r="S33" s="67" t="s">
+        <v>100</v>
+      </c>
+      <c r="T33" s="67"/>
+      <c r="U33" s="67"/>
       <c r="V33" s="35"/>
     </row>
     <row r="34" spans="1:22" ht="15.5">
-      <c r="A34" s="54"/>
+      <c r="A34" s="52"/>
       <c r="B34" s="32">
         <v>5.2</v>
       </c>
-      <c r="C34" s="33"/>
-      <c r="D34" s="33"/>
-      <c r="E34" s="33"/>
-      <c r="F34" s="33"/>
-      <c r="G34" s="33"/>
-      <c r="H34" s="33"/>
-      <c r="I34" s="33"/>
-      <c r="J34" s="33"/>
-      <c r="K34" s="33"/>
-      <c r="L34" s="33"/>
-      <c r="M34" s="33" t="s">
-        <v>100</v>
-      </c>
-      <c r="N34" s="33"/>
-      <c r="O34" s="33"/>
-      <c r="P34" s="33"/>
-      <c r="Q34" s="33"/>
-      <c r="R34" s="33"/>
-      <c r="S34" s="33"/>
-      <c r="T34" s="33"/>
-      <c r="U34" s="33"/>
+      <c r="C34" s="67"/>
+      <c r="D34" s="67"/>
+      <c r="E34" s="67"/>
+      <c r="F34" s="67"/>
+      <c r="G34" s="67"/>
+      <c r="H34" s="67"/>
+      <c r="I34" s="67"/>
+      <c r="J34" s="67"/>
+      <c r="K34" s="67"/>
+      <c r="L34" s="67"/>
+      <c r="M34" s="67" t="s">
+        <v>100</v>
+      </c>
+      <c r="N34" s="67"/>
+      <c r="O34" s="67"/>
+      <c r="P34" s="67"/>
+      <c r="Q34" s="67"/>
+      <c r="R34" s="67"/>
+      <c r="S34" s="67"/>
+      <c r="T34" s="67"/>
+      <c r="U34" s="67"/>
       <c r="V34" s="35"/>
     </row>
     <row r="35" spans="1:22" ht="15.5">
-      <c r="A35" s="54"/>
+      <c r="A35" s="52"/>
       <c r="B35" s="32">
         <v>5.3</v>
       </c>
-      <c r="C35" s="33"/>
-      <c r="D35" s="33"/>
-      <c r="E35" s="33"/>
-      <c r="F35" s="33"/>
-      <c r="G35" s="33"/>
-      <c r="H35" s="33"/>
-      <c r="I35" s="33"/>
-      <c r="J35" s="33"/>
-      <c r="K35" s="33"/>
-      <c r="L35" s="33"/>
-      <c r="M35" s="33" t="s">
-        <v>100</v>
-      </c>
-      <c r="N35" s="33"/>
-      <c r="O35" s="33"/>
-      <c r="P35" s="33"/>
-      <c r="Q35" s="33"/>
-      <c r="R35" s="33"/>
-      <c r="S35" s="33"/>
-      <c r="T35" s="33"/>
-      <c r="U35" s="33"/>
+      <c r="C35" s="67"/>
+      <c r="D35" s="67"/>
+      <c r="E35" s="67"/>
+      <c r="F35" s="67"/>
+      <c r="G35" s="67"/>
+      <c r="H35" s="67"/>
+      <c r="I35" s="67"/>
+      <c r="J35" s="67"/>
+      <c r="K35" s="67"/>
+      <c r="L35" s="67"/>
+      <c r="M35" s="67" t="s">
+        <v>100</v>
+      </c>
+      <c r="N35" s="67"/>
+      <c r="O35" s="67"/>
+      <c r="P35" s="67"/>
+      <c r="Q35" s="67"/>
+      <c r="R35" s="67"/>
+      <c r="S35" s="67"/>
+      <c r="T35" s="67"/>
+      <c r="U35" s="67"/>
       <c r="V35" s="35"/>
     </row>
   </sheetData>
@@ -4091,105 +4210,122 @@
     <mergeCell ref="G2:J2"/>
     <mergeCell ref="K2:M2"/>
   </mergeCells>
-  <conditionalFormatting sqref="C4:V35">
-    <cfRule type="cellIs" dxfId="119" priority="26" operator="equal">
+  <conditionalFormatting sqref="V4:V35">
+    <cfRule type="cellIs" dxfId="129" priority="31" operator="equal">
       <formula>"S"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="118" priority="27" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="128" priority="32" stopIfTrue="1" operator="equal">
       <formula>"FM"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="117" priority="28" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="127" priority="33" stopIfTrue="1" operator="equal">
       <formula>"LM"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="116" priority="29" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="126" priority="34" stopIfTrue="1" operator="equal">
       <formula>"PM"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="115" priority="30" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="125" priority="35" stopIfTrue="1" operator="equal">
       <formula>"DM"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4">
-    <cfRule type="cellIs" dxfId="114" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="124" priority="26" operator="equal">
       <formula>"S"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="113" priority="22" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="123" priority="27" stopIfTrue="1" operator="equal">
       <formula>"FM"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="112" priority="23" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="122" priority="28" stopIfTrue="1" operator="equal">
       <formula>"LM"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="111" priority="24" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="121" priority="29" stopIfTrue="1" operator="equal">
       <formula>"PM"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="110" priority="25" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="120" priority="30" stopIfTrue="1" operator="equal">
       <formula>"DM"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B9">
-    <cfRule type="cellIs" dxfId="109" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="119" priority="21" operator="equal">
       <formula>"S"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="108" priority="17" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="118" priority="22" stopIfTrue="1" operator="equal">
       <formula>"FM"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="107" priority="18" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="117" priority="23" stopIfTrue="1" operator="equal">
       <formula>"LM"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="106" priority="19" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="116" priority="24" stopIfTrue="1" operator="equal">
       <formula>"PM"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="105" priority="20" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="115" priority="25" stopIfTrue="1" operator="equal">
       <formula>"DM"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B18">
-    <cfRule type="cellIs" dxfId="104" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="114" priority="16" operator="equal">
       <formula>"S"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="103" priority="12" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="113" priority="17" stopIfTrue="1" operator="equal">
       <formula>"FM"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="102" priority="13" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="112" priority="18" stopIfTrue="1" operator="equal">
       <formula>"LM"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="101" priority="14" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="111" priority="19" stopIfTrue="1" operator="equal">
       <formula>"PM"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="100" priority="15" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="110" priority="20" stopIfTrue="1" operator="equal">
       <formula>"DM"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B26">
-    <cfRule type="cellIs" dxfId="99" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="109" priority="11" operator="equal">
       <formula>"S"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="98" priority="7" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="108" priority="12" stopIfTrue="1" operator="equal">
       <formula>"FM"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="97" priority="8" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="107" priority="13" stopIfTrue="1" operator="equal">
       <formula>"LM"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="96" priority="9" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="106" priority="14" stopIfTrue="1" operator="equal">
       <formula>"PM"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="95" priority="10" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="105" priority="15" stopIfTrue="1" operator="equal">
       <formula>"DM"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B32">
-    <cfRule type="cellIs" dxfId="94" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="104" priority="6" operator="equal">
       <formula>"S"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="93" priority="2" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="103" priority="7" stopIfTrue="1" operator="equal">
       <formula>"FM"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="92" priority="3" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="102" priority="8" stopIfTrue="1" operator="equal">
       <formula>"LM"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="91" priority="4" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="101" priority="9" stopIfTrue="1" operator="equal">
       <formula>"PM"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="90" priority="5" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="100" priority="10" stopIfTrue="1" operator="equal">
+      <formula>"DM"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C4:U35">
+    <cfRule type="cellIs" dxfId="99" priority="1" operator="equal">
+      <formula>"S"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="98" priority="2" stopIfTrue="1" operator="equal">
+      <formula>"FM"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="97" priority="3" stopIfTrue="1" operator="equal">
+      <formula>"LM"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="96" priority="4" stopIfTrue="1" operator="equal">
+      <formula>"PM"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="95" priority="5" stopIfTrue="1" operator="equal">
       <formula>"DM"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4202,10 +4338,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AA37"/>
+  <dimension ref="A1:V38"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="R14" sqref="R14"/>
+      <selection activeCell="AB19" sqref="AB19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5"/>
@@ -4215,60 +4351,60 @@
     <col min="23" max="16384" width="8.7265625" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" s="36" customFormat="1" ht="18.5">
+    <row r="1" spans="1:22" s="36" customFormat="1" ht="18.5">
       <c r="A1" s="36" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="2" spans="1:27" ht="93">
-      <c r="A2" s="57" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" ht="93">
+      <c r="A2" s="55" t="s">
         <v>67</v>
       </c>
-      <c r="B2" s="57" t="s">
+      <c r="B2" s="55" t="s">
         <v>68</v>
       </c>
-      <c r="C2" s="55" t="s">
+      <c r="C2" s="53" t="s">
         <v>69</v>
       </c>
-      <c r="D2" s="55"/>
-      <c r="E2" s="56" t="s">
+      <c r="D2" s="53"/>
+      <c r="E2" s="54" t="s">
         <v>70</v>
       </c>
-      <c r="F2" s="56"/>
-      <c r="G2" s="55" t="s">
+      <c r="F2" s="54"/>
+      <c r="G2" s="53" t="s">
         <v>71</v>
       </c>
-      <c r="H2" s="55"/>
-      <c r="I2" s="55"/>
-      <c r="J2" s="55"/>
-      <c r="K2" s="56" t="s">
+      <c r="H2" s="53"/>
+      <c r="I2" s="53"/>
+      <c r="J2" s="53"/>
+      <c r="K2" s="54" t="s">
         <v>72</v>
       </c>
-      <c r="L2" s="56"/>
-      <c r="M2" s="56"/>
+      <c r="L2" s="54"/>
+      <c r="M2" s="54"/>
       <c r="N2" s="28" t="s">
         <v>73</v>
       </c>
       <c r="O2" s="29" t="s">
         <v>74</v>
       </c>
-      <c r="P2" s="55" t="s">
+      <c r="P2" s="53" t="s">
         <v>75</v>
       </c>
-      <c r="Q2" s="55"/>
-      <c r="R2" s="55"/>
-      <c r="S2" s="56" t="s">
+      <c r="Q2" s="53"/>
+      <c r="R2" s="53"/>
+      <c r="S2" s="54" t="s">
         <v>76</v>
       </c>
-      <c r="T2" s="56"/>
-      <c r="U2" s="56"/>
+      <c r="T2" s="54"/>
+      <c r="U2" s="54"/>
       <c r="V2" s="30" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="3" spans="1:27" ht="15.5">
-      <c r="A3" s="57"/>
-      <c r="B3" s="57"/>
+    <row r="3" spans="1:22" ht="15.5">
+      <c r="A3" s="55"/>
+      <c r="B3" s="55"/>
       <c r="C3" s="31" t="s">
         <v>78</v>
       </c>
@@ -4330,1512 +4466,1489 @@
         <v>97</v>
       </c>
     </row>
-    <row r="4" spans="1:27" ht="15.5">
-      <c r="A4" s="54" t="s">
+    <row r="4" spans="1:22" ht="15.5">
+      <c r="A4" s="52" t="s">
         <v>98</v>
       </c>
       <c r="B4" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="34" t="s">
-        <v>99</v>
-      </c>
-      <c r="D4" s="34" t="s">
-        <v>99</v>
-      </c>
-      <c r="E4" s="34" t="s">
-        <v>99</v>
-      </c>
-      <c r="F4" s="34" t="s">
-        <v>99</v>
-      </c>
-      <c r="G4" s="34" t="s">
-        <v>99</v>
-      </c>
-      <c r="H4" s="34" t="s">
-        <v>99</v>
-      </c>
-      <c r="I4" s="34" t="s">
-        <v>99</v>
-      </c>
-      <c r="J4" s="34" t="s">
-        <v>99</v>
-      </c>
-      <c r="K4" s="34" t="s">
-        <v>99</v>
-      </c>
-      <c r="L4" s="34" t="s">
-        <v>99</v>
-      </c>
-      <c r="M4" s="34" t="s">
-        <v>99</v>
-      </c>
-      <c r="N4" s="34" t="s">
-        <v>99</v>
-      </c>
-      <c r="O4" s="34" t="s">
-        <v>99</v>
-      </c>
-      <c r="P4" s="34" t="s">
-        <v>99</v>
-      </c>
-      <c r="Q4" s="34" t="s">
-        <v>99</v>
-      </c>
-      <c r="R4" s="34" t="s">
-        <v>99</v>
-      </c>
-      <c r="S4" s="34" t="s">
-        <v>99</v>
-      </c>
-      <c r="T4" s="34" t="s">
-        <v>99</v>
-      </c>
-      <c r="U4" s="34" t="s">
+      <c r="C4" s="66" t="s">
+        <v>99</v>
+      </c>
+      <c r="D4" s="66" t="s">
+        <v>99</v>
+      </c>
+      <c r="E4" s="66" t="s">
+        <v>99</v>
+      </c>
+      <c r="F4" s="66" t="s">
+        <v>99</v>
+      </c>
+      <c r="G4" s="66" t="s">
+        <v>99</v>
+      </c>
+      <c r="H4" s="66" t="s">
+        <v>99</v>
+      </c>
+      <c r="I4" s="66" t="s">
+        <v>99</v>
+      </c>
+      <c r="J4" s="66" t="s">
+        <v>99</v>
+      </c>
+      <c r="K4" s="66" t="s">
+        <v>99</v>
+      </c>
+      <c r="L4" s="66" t="s">
+        <v>99</v>
+      </c>
+      <c r="M4" s="66" t="s">
+        <v>99</v>
+      </c>
+      <c r="N4" s="66" t="s">
+        <v>99</v>
+      </c>
+      <c r="O4" s="66" t="s">
+        <v>99</v>
+      </c>
+      <c r="P4" s="66" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q4" s="66" t="s">
+        <v>99</v>
+      </c>
+      <c r="R4" s="66" t="s">
+        <v>99</v>
+      </c>
+      <c r="S4" s="66" t="s">
+        <v>99</v>
+      </c>
+      <c r="T4" s="66" t="s">
+        <v>99</v>
+      </c>
+      <c r="U4" s="66" t="s">
         <v>99</v>
       </c>
       <c r="V4" s="35" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="5" spans="1:27" ht="15.5">
-      <c r="A5" s="54"/>
+    <row r="5" spans="1:22" ht="15.5">
+      <c r="A5" s="52"/>
       <c r="B5" s="32">
         <v>1.1000000000000001</v>
       </c>
-      <c r="C5" s="33" t="s">
-        <v>99</v>
-      </c>
-      <c r="D5" s="33" t="s">
-        <v>99</v>
-      </c>
-      <c r="E5" s="33" t="s">
-        <v>99</v>
-      </c>
-      <c r="F5" s="33" t="s">
-        <v>99</v>
-      </c>
-      <c r="G5" s="33" t="s">
-        <v>99</v>
-      </c>
-      <c r="H5" s="33" t="s">
-        <v>99</v>
-      </c>
-      <c r="I5" s="33" t="s">
-        <v>99</v>
-      </c>
-      <c r="J5" s="33" t="s">
-        <v>99</v>
-      </c>
-      <c r="K5" s="33" t="s">
-        <v>99</v>
-      </c>
-      <c r="L5" s="33" t="s">
-        <v>99</v>
-      </c>
-      <c r="M5" s="33" t="s">
-        <v>99</v>
-      </c>
-      <c r="N5" s="33" t="s">
-        <v>99</v>
-      </c>
-      <c r="O5" s="33" t="s">
-        <v>99</v>
-      </c>
-      <c r="P5" s="33" t="s">
-        <v>99</v>
-      </c>
-      <c r="Q5" s="33" t="s">
-        <v>99</v>
-      </c>
-      <c r="R5" s="33" t="s">
-        <v>99</v>
-      </c>
-      <c r="S5" s="33" t="s">
-        <v>99</v>
-      </c>
-      <c r="T5" s="33" t="s">
-        <v>99</v>
-      </c>
-      <c r="U5" s="33" t="s">
-        <v>99</v>
+      <c r="C5" s="67" t="s">
+        <v>100</v>
+      </c>
+      <c r="D5" s="67" t="s">
+        <v>100</v>
+      </c>
+      <c r="E5" s="67" t="s">
+        <v>100</v>
+      </c>
+      <c r="F5" s="67" t="s">
+        <v>100</v>
+      </c>
+      <c r="G5" s="67" t="s">
+        <v>100</v>
+      </c>
+      <c r="H5" s="67" t="s">
+        <v>100</v>
+      </c>
+      <c r="I5" s="67" t="s">
+        <v>100</v>
+      </c>
+      <c r="J5" s="67" t="s">
+        <v>100</v>
+      </c>
+      <c r="K5" s="67" t="s">
+        <v>100</v>
+      </c>
+      <c r="L5" s="67" t="s">
+        <v>100</v>
+      </c>
+      <c r="M5" s="67" t="s">
+        <v>100</v>
+      </c>
+      <c r="N5" s="67" t="s">
+        <v>100</v>
+      </c>
+      <c r="O5" s="67" t="s">
+        <v>100</v>
+      </c>
+      <c r="P5" s="67" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q5" s="67" t="s">
+        <v>100</v>
+      </c>
+      <c r="R5" s="67" t="s">
+        <v>100</v>
+      </c>
+      <c r="S5" s="67" t="s">
+        <v>100</v>
+      </c>
+      <c r="T5" s="67" t="s">
+        <v>100</v>
+      </c>
+      <c r="U5" s="67" t="s">
+        <v>100</v>
       </c>
       <c r="V5" s="35" t="s">
         <v>23</v>
       </c>
-      <c r="Y5" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="AA5" s="16" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="6" spans="1:27" ht="15.5">
-      <c r="A6" s="54"/>
+    </row>
+    <row r="6" spans="1:22" ht="15.5">
+      <c r="A6" s="52"/>
       <c r="B6" s="32">
         <v>1.2</v>
       </c>
-      <c r="C6" s="33" t="s">
-        <v>100</v>
-      </c>
-      <c r="D6" s="33" t="s">
-        <v>100</v>
-      </c>
-      <c r="E6" s="33" t="s">
-        <v>100</v>
-      </c>
-      <c r="F6" s="33" t="s">
-        <v>100</v>
-      </c>
-      <c r="G6" s="33" t="s">
-        <v>100</v>
-      </c>
-      <c r="H6" s="33" t="s">
-        <v>100</v>
-      </c>
-      <c r="I6" s="33" t="s">
-        <v>100</v>
-      </c>
-      <c r="J6" s="33" t="s">
-        <v>100</v>
-      </c>
-      <c r="K6" s="33" t="s">
-        <v>100</v>
-      </c>
-      <c r="L6" s="33" t="s">
-        <v>100</v>
-      </c>
-      <c r="M6" s="33" t="s">
-        <v>100</v>
-      </c>
-      <c r="N6" s="33" t="s">
-        <v>100</v>
-      </c>
-      <c r="O6" s="33" t="s">
-        <v>100</v>
-      </c>
-      <c r="P6" s="33" t="s">
-        <v>100</v>
-      </c>
-      <c r="Q6" s="33" t="s">
-        <v>100</v>
-      </c>
-      <c r="R6" s="33" t="s">
-        <v>100</v>
-      </c>
-      <c r="S6" s="33" t="s">
-        <v>100</v>
-      </c>
-      <c r="T6" s="33" t="s">
-        <v>100</v>
-      </c>
-      <c r="U6" s="33" t="s">
-        <v>100</v>
-      </c>
+      <c r="C6" s="67"/>
+      <c r="D6" s="67"/>
+      <c r="E6" s="67"/>
+      <c r="F6" s="67"/>
+      <c r="G6" s="67"/>
+      <c r="H6" s="67" t="s">
+        <v>100</v>
+      </c>
+      <c r="I6" s="67"/>
+      <c r="J6" s="67"/>
+      <c r="K6" s="67" t="s">
+        <v>100</v>
+      </c>
+      <c r="L6" s="67"/>
+      <c r="M6" s="67" t="s">
+        <v>100</v>
+      </c>
+      <c r="N6" s="67"/>
+      <c r="O6" s="67"/>
+      <c r="P6" s="67" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q6" s="67" t="s">
+        <v>100</v>
+      </c>
+      <c r="R6" s="67"/>
+      <c r="S6" s="67"/>
+      <c r="T6" s="67" t="s">
+        <v>100</v>
+      </c>
+      <c r="U6" s="67"/>
       <c r="V6" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="Y6" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="AA6" s="16" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="7" spans="1:27" ht="15.5">
-      <c r="A7" s="54"/>
+    </row>
+    <row r="7" spans="1:22" ht="15.5">
+      <c r="A7" s="52"/>
       <c r="B7" s="32">
         <v>1.3</v>
       </c>
-      <c r="C7" s="33"/>
-      <c r="D7" s="33"/>
-      <c r="E7" s="33"/>
-      <c r="F7" s="33"/>
-      <c r="G7" s="33"/>
-      <c r="H7" s="33" t="s">
-        <v>100</v>
-      </c>
-      <c r="I7" s="33"/>
-      <c r="J7" s="33"/>
-      <c r="K7" s="33" t="s">
-        <v>100</v>
-      </c>
-      <c r="L7" s="33"/>
-      <c r="M7" s="33" t="s">
-        <v>100</v>
-      </c>
-      <c r="N7" s="33"/>
-      <c r="O7" s="33"/>
-      <c r="P7" s="33" t="s">
-        <v>100</v>
-      </c>
-      <c r="Q7" s="33" t="s">
-        <v>100</v>
-      </c>
-      <c r="R7" s="33"/>
-      <c r="S7" s="33"/>
-      <c r="T7" s="33" t="s">
-        <v>100</v>
-      </c>
-      <c r="U7" s="33"/>
+      <c r="C7" s="67"/>
+      <c r="D7" s="67"/>
+      <c r="E7" s="67"/>
+      <c r="F7" s="67"/>
+      <c r="G7" s="67"/>
+      <c r="H7" s="67"/>
+      <c r="I7" s="67"/>
+      <c r="J7" s="67"/>
+      <c r="K7" s="67" t="s">
+        <v>100</v>
+      </c>
+      <c r="L7" s="67"/>
+      <c r="M7" s="67"/>
+      <c r="N7" s="67"/>
+      <c r="O7" s="67"/>
+      <c r="P7" s="67"/>
+      <c r="Q7" s="67"/>
+      <c r="R7" s="67"/>
+      <c r="S7" s="67"/>
+      <c r="T7" s="67"/>
+      <c r="U7" s="67"/>
       <c r="V7" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="Y7" s="16" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:27" ht="15.5">
-      <c r="A8" s="54"/>
+    </row>
+    <row r="8" spans="1:22" ht="15.5">
+      <c r="A8" s="52"/>
       <c r="B8" s="32">
         <v>1.4</v>
       </c>
-      <c r="C8" s="33"/>
-      <c r="D8" s="33"/>
-      <c r="E8" s="33"/>
-      <c r="F8" s="33"/>
-      <c r="G8" s="33"/>
-      <c r="H8" s="33"/>
-      <c r="I8" s="33"/>
-      <c r="J8" s="33"/>
-      <c r="K8" s="33" t="s">
-        <v>100</v>
-      </c>
-      <c r="L8" s="33"/>
-      <c r="M8" s="33"/>
-      <c r="N8" s="33"/>
-      <c r="O8" s="33"/>
-      <c r="P8" s="33"/>
-      <c r="Q8" s="33"/>
-      <c r="R8" s="33"/>
-      <c r="S8" s="33"/>
-      <c r="T8" s="33"/>
-      <c r="U8" s="33"/>
+      <c r="C8" s="67"/>
+      <c r="D8" s="67"/>
+      <c r="E8" s="67"/>
+      <c r="F8" s="67"/>
+      <c r="G8" s="67"/>
+      <c r="H8" s="67"/>
+      <c r="I8" s="67"/>
+      <c r="J8" s="67"/>
+      <c r="K8" s="67"/>
+      <c r="L8" s="67"/>
+      <c r="M8" s="67"/>
+      <c r="N8" s="67"/>
+      <c r="O8" s="67"/>
+      <c r="P8" s="67"/>
+      <c r="Q8" s="67"/>
+      <c r="R8" s="67"/>
+      <c r="S8" s="67"/>
+      <c r="T8" s="67"/>
+      <c r="U8" s="67"/>
       <c r="V8" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="Y8" s="16" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:27" ht="15.5">
-      <c r="A9" s="54" t="s">
-        <v>102</v>
+    </row>
+    <row r="9" spans="1:22" ht="15.5">
+      <c r="A9" s="52" t="s">
+        <v>101</v>
       </c>
       <c r="B9" s="33" t="s">
-        <v>102</v>
-      </c>
-      <c r="C9" s="34"/>
-      <c r="D9" s="34"/>
-      <c r="E9" s="34"/>
-      <c r="F9" s="34"/>
-      <c r="G9" s="34"/>
-      <c r="H9" s="34"/>
-      <c r="I9" s="34"/>
-      <c r="J9" s="34"/>
-      <c r="K9" s="34" t="s">
-        <v>100</v>
-      </c>
-      <c r="L9" s="34"/>
-      <c r="M9" s="34"/>
-      <c r="N9" s="34"/>
-      <c r="O9" s="34"/>
-      <c r="P9" s="34"/>
-      <c r="Q9" s="34"/>
-      <c r="R9" s="34"/>
-      <c r="S9" s="34"/>
-      <c r="T9" s="34"/>
-      <c r="U9" s="34"/>
+        <v>101</v>
+      </c>
+      <c r="C9" s="66" t="s">
+        <v>99</v>
+      </c>
+      <c r="D9" s="66" t="s">
+        <v>99</v>
+      </c>
+      <c r="E9" s="66" t="s">
+        <v>99</v>
+      </c>
+      <c r="F9" s="66" t="s">
+        <v>99</v>
+      </c>
+      <c r="G9" s="66" t="s">
+        <v>99</v>
+      </c>
+      <c r="H9" s="66" t="s">
+        <v>99</v>
+      </c>
+      <c r="I9" s="66" t="s">
+        <v>99</v>
+      </c>
+      <c r="J9" s="66" t="s">
+        <v>99</v>
+      </c>
+      <c r="K9" s="66" t="s">
+        <v>99</v>
+      </c>
+      <c r="L9" s="66" t="s">
+        <v>99</v>
+      </c>
+      <c r="M9" s="66" t="s">
+        <v>99</v>
+      </c>
+      <c r="N9" s="66" t="s">
+        <v>99</v>
+      </c>
+      <c r="O9" s="66" t="s">
+        <v>99</v>
+      </c>
+      <c r="P9" s="66" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q9" s="66" t="s">
+        <v>99</v>
+      </c>
+      <c r="R9" s="66" t="s">
+        <v>99</v>
+      </c>
+      <c r="S9" s="66" t="s">
+        <v>99</v>
+      </c>
+      <c r="T9" s="66" t="s">
+        <v>99</v>
+      </c>
+      <c r="U9" s="66" t="s">
+        <v>99</v>
+      </c>
       <c r="V9" s="35"/>
-      <c r="Y9" s="16" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="10" spans="1:27" ht="15.5">
-      <c r="A10" s="54"/>
+    </row>
+    <row r="10" spans="1:22" ht="15.5">
+      <c r="A10" s="52"/>
       <c r="B10" s="32">
         <v>2.1</v>
       </c>
-      <c r="C10" s="33" t="s">
-        <v>99</v>
-      </c>
-      <c r="D10" s="33" t="s">
-        <v>99</v>
-      </c>
-      <c r="E10" s="33" t="s">
-        <v>99</v>
-      </c>
-      <c r="F10" s="33" t="s">
-        <v>99</v>
-      </c>
-      <c r="G10" s="33" t="s">
-        <v>99</v>
-      </c>
-      <c r="H10" s="33" t="s">
-        <v>99</v>
-      </c>
-      <c r="I10" s="33" t="s">
-        <v>99</v>
-      </c>
-      <c r="J10" s="33" t="s">
-        <v>99</v>
-      </c>
-      <c r="K10" s="33" t="s">
-        <v>99</v>
-      </c>
-      <c r="L10" s="33" t="s">
-        <v>99</v>
-      </c>
-      <c r="M10" s="33" t="s">
-        <v>99</v>
-      </c>
-      <c r="N10" s="33" t="s">
-        <v>99</v>
-      </c>
-      <c r="O10" s="33" t="s">
-        <v>99</v>
-      </c>
-      <c r="P10" s="33" t="s">
-        <v>99</v>
-      </c>
-      <c r="Q10" s="33" t="s">
-        <v>99</v>
-      </c>
-      <c r="R10" s="33" t="s">
-        <v>99</v>
-      </c>
-      <c r="S10" s="33" t="s">
-        <v>99</v>
-      </c>
-      <c r="T10" s="33" t="s">
-        <v>99</v>
-      </c>
-      <c r="U10" s="33" t="s">
-        <v>99</v>
+      <c r="C10" s="67" t="s">
+        <v>100</v>
+      </c>
+      <c r="D10" s="67" t="s">
+        <v>100</v>
+      </c>
+      <c r="E10" s="67" t="s">
+        <v>100</v>
+      </c>
+      <c r="F10" s="67" t="s">
+        <v>100</v>
+      </c>
+      <c r="G10" s="67" t="s">
+        <v>100</v>
+      </c>
+      <c r="H10" s="67" t="s">
+        <v>100</v>
+      </c>
+      <c r="I10" s="67" t="s">
+        <v>100</v>
+      </c>
+      <c r="J10" s="67" t="s">
+        <v>100</v>
+      </c>
+      <c r="K10" s="67" t="s">
+        <v>100</v>
+      </c>
+      <c r="L10" s="67" t="s">
+        <v>100</v>
+      </c>
+      <c r="M10" s="67" t="s">
+        <v>100</v>
+      </c>
+      <c r="N10" s="67" t="s">
+        <v>100</v>
+      </c>
+      <c r="O10" s="67" t="s">
+        <v>100</v>
+      </c>
+      <c r="P10" s="67" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q10" s="67" t="s">
+        <v>100</v>
+      </c>
+      <c r="R10" s="67" t="s">
+        <v>100</v>
+      </c>
+      <c r="S10" s="67" t="s">
+        <v>100</v>
+      </c>
+      <c r="T10" s="67" t="s">
+        <v>100</v>
+      </c>
+      <c r="U10" s="67" t="s">
+        <v>100</v>
       </c>
       <c r="V10" s="35" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:27" ht="15.5">
-      <c r="A11" s="54"/>
+    <row r="11" spans="1:22" ht="15.5">
+      <c r="A11" s="52"/>
       <c r="B11" s="32">
         <v>2.2000000000000002</v>
       </c>
-      <c r="C11" s="33" t="s">
-        <v>100</v>
-      </c>
-      <c r="D11" s="33" t="s">
-        <v>100</v>
-      </c>
-      <c r="E11" s="33" t="s">
-        <v>100</v>
-      </c>
-      <c r="F11" s="33" t="s">
-        <v>100</v>
-      </c>
-      <c r="G11" s="33" t="s">
-        <v>100</v>
-      </c>
-      <c r="H11" s="33" t="s">
-        <v>100</v>
-      </c>
-      <c r="I11" s="33" t="s">
-        <v>100</v>
-      </c>
-      <c r="J11" s="33" t="s">
-        <v>100</v>
-      </c>
-      <c r="K11" s="33" t="s">
-        <v>100</v>
-      </c>
-      <c r="L11" s="33" t="s">
-        <v>100</v>
-      </c>
-      <c r="M11" s="33" t="s">
-        <v>100</v>
-      </c>
-      <c r="N11" s="33" t="s">
-        <v>100</v>
-      </c>
-      <c r="O11" s="33" t="s">
-        <v>100</v>
-      </c>
-      <c r="P11" s="33" t="s">
-        <v>100</v>
-      </c>
-      <c r="Q11" s="33" t="s">
-        <v>100</v>
-      </c>
-      <c r="R11" s="33" t="s">
-        <v>100</v>
-      </c>
-      <c r="S11" s="33" t="s">
-        <v>100</v>
-      </c>
-      <c r="T11" s="33" t="s">
-        <v>100</v>
-      </c>
-      <c r="U11" s="33" t="s">
+      <c r="C11" s="67" t="s">
+        <v>100</v>
+      </c>
+      <c r="D11" s="67" t="s">
+        <v>100</v>
+      </c>
+      <c r="E11" s="67" t="s">
+        <v>100</v>
+      </c>
+      <c r="F11" s="67" t="s">
+        <v>100</v>
+      </c>
+      <c r="G11" s="67" t="s">
+        <v>100</v>
+      </c>
+      <c r="H11" s="67" t="s">
+        <v>100</v>
+      </c>
+      <c r="I11" s="67" t="s">
+        <v>100</v>
+      </c>
+      <c r="J11" s="67" t="s">
+        <v>100</v>
+      </c>
+      <c r="K11" s="67" t="s">
+        <v>100</v>
+      </c>
+      <c r="L11" s="67" t="s">
+        <v>100</v>
+      </c>
+      <c r="M11" s="67" t="s">
+        <v>100</v>
+      </c>
+      <c r="N11" s="67" t="s">
+        <v>100</v>
+      </c>
+      <c r="O11" s="67" t="s">
+        <v>100</v>
+      </c>
+      <c r="P11" s="67" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q11" s="67" t="s">
+        <v>100</v>
+      </c>
+      <c r="R11" s="67" t="s">
+        <v>100</v>
+      </c>
+      <c r="S11" s="67" t="s">
+        <v>100</v>
+      </c>
+      <c r="T11" s="67" t="s">
+        <v>100</v>
+      </c>
+      <c r="U11" s="67" t="s">
         <v>100</v>
       </c>
       <c r="V11" s="35" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:27" ht="15.5">
-      <c r="A12" s="54"/>
+    <row r="12" spans="1:22" ht="15.5">
+      <c r="A12" s="52"/>
       <c r="B12" s="32">
         <v>2.2999999999999998</v>
       </c>
-      <c r="C12" s="33" t="s">
-        <v>100</v>
-      </c>
-      <c r="D12" s="33" t="s">
-        <v>100</v>
-      </c>
-      <c r="E12" s="33" t="s">
-        <v>100</v>
-      </c>
-      <c r="F12" s="33" t="s">
-        <v>100</v>
-      </c>
-      <c r="G12" s="33" t="s">
-        <v>100</v>
-      </c>
-      <c r="H12" s="33" t="s">
-        <v>100</v>
-      </c>
-      <c r="I12" s="33" t="s">
-        <v>100</v>
-      </c>
-      <c r="J12" s="33" t="s">
-        <v>100</v>
-      </c>
-      <c r="K12" s="33" t="s">
-        <v>100</v>
-      </c>
-      <c r="L12" s="33" t="s">
-        <v>100</v>
-      </c>
-      <c r="M12" s="33" t="s">
-        <v>100</v>
-      </c>
-      <c r="N12" s="33" t="s">
-        <v>100</v>
-      </c>
-      <c r="O12" s="33" t="s">
-        <v>100</v>
-      </c>
-      <c r="P12" s="33" t="s">
-        <v>100</v>
-      </c>
-      <c r="Q12" s="33" t="s">
-        <v>100</v>
-      </c>
-      <c r="R12" s="33" t="s">
-        <v>100</v>
-      </c>
-      <c r="S12" s="33" t="s">
-        <v>100</v>
-      </c>
-      <c r="T12" s="33" t="s">
-        <v>100</v>
-      </c>
-      <c r="U12" s="33" t="s">
+      <c r="C12" s="67" t="s">
+        <v>100</v>
+      </c>
+      <c r="D12" s="67"/>
+      <c r="E12" s="67" t="s">
+        <v>100</v>
+      </c>
+      <c r="F12" s="67" t="s">
+        <v>100</v>
+      </c>
+      <c r="G12" s="67" t="s">
+        <v>100</v>
+      </c>
+      <c r="H12" s="67" t="s">
+        <v>100</v>
+      </c>
+      <c r="I12" s="67" t="s">
+        <v>100</v>
+      </c>
+      <c r="J12" s="67" t="s">
+        <v>100</v>
+      </c>
+      <c r="K12" s="67"/>
+      <c r="L12" s="67" t="s">
+        <v>100</v>
+      </c>
+      <c r="M12" s="67" t="s">
+        <v>100</v>
+      </c>
+      <c r="N12" s="67"/>
+      <c r="O12" s="67"/>
+      <c r="P12" s="67" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q12" s="67" t="s">
+        <v>100</v>
+      </c>
+      <c r="R12" s="67" t="s">
+        <v>100</v>
+      </c>
+      <c r="S12" s="67"/>
+      <c r="T12" s="67" t="s">
+        <v>100</v>
+      </c>
+      <c r="U12" s="67" t="s">
         <v>100</v>
       </c>
       <c r="V12" s="35" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:27" ht="15.5">
-      <c r="A13" s="54"/>
+    <row r="13" spans="1:22" ht="15.5">
+      <c r="A13" s="52"/>
       <c r="B13" s="32">
         <v>2.4</v>
       </c>
-      <c r="C13" s="33" t="s">
-        <v>100</v>
-      </c>
-      <c r="D13" s="33"/>
-      <c r="E13" s="33" t="s">
-        <v>100</v>
-      </c>
-      <c r="F13" s="33" t="s">
-        <v>100</v>
-      </c>
-      <c r="G13" s="33" t="s">
-        <v>100</v>
-      </c>
-      <c r="H13" s="33" t="s">
-        <v>100</v>
-      </c>
-      <c r="I13" s="33" t="s">
-        <v>100</v>
-      </c>
-      <c r="J13" s="33" t="s">
-        <v>100</v>
-      </c>
-      <c r="K13" s="33"/>
-      <c r="L13" s="33" t="s">
-        <v>100</v>
-      </c>
-      <c r="M13" s="33" t="s">
-        <v>100</v>
-      </c>
-      <c r="N13" s="33"/>
-      <c r="O13" s="33"/>
-      <c r="P13" s="33" t="s">
-        <v>100</v>
-      </c>
-      <c r="Q13" s="33" t="s">
-        <v>100</v>
-      </c>
-      <c r="R13" s="33" t="s">
-        <v>100</v>
-      </c>
-      <c r="S13" s="33"/>
-      <c r="T13" s="33" t="s">
-        <v>100</v>
-      </c>
-      <c r="U13" s="33" t="s">
+      <c r="C13" s="67" t="s">
+        <v>100</v>
+      </c>
+      <c r="D13" s="67"/>
+      <c r="E13" s="67"/>
+      <c r="F13" s="67" t="s">
+        <v>100</v>
+      </c>
+      <c r="G13" s="67" t="s">
+        <v>100</v>
+      </c>
+      <c r="H13" s="67"/>
+      <c r="I13" s="67" t="s">
+        <v>100</v>
+      </c>
+      <c r="J13" s="67" t="s">
+        <v>100</v>
+      </c>
+      <c r="K13" s="67"/>
+      <c r="L13" s="67"/>
+      <c r="M13" s="67" t="s">
+        <v>100</v>
+      </c>
+      <c r="N13" s="67"/>
+      <c r="O13" s="67"/>
+      <c r="P13" s="67" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q13" s="67" t="s">
+        <v>100</v>
+      </c>
+      <c r="R13" s="67"/>
+      <c r="S13" s="67"/>
+      <c r="T13" s="67" t="s">
+        <v>100</v>
+      </c>
+      <c r="U13" s="67" t="s">
         <v>100</v>
       </c>
       <c r="V13" s="35" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:27" ht="15.5">
-      <c r="A14" s="54"/>
+    <row r="14" spans="1:22" ht="15.5">
+      <c r="A14" s="52"/>
       <c r="B14" s="32">
         <v>2.5</v>
       </c>
-      <c r="C14" s="33" t="s">
-        <v>100</v>
-      </c>
-      <c r="D14" s="33"/>
-      <c r="E14" s="33"/>
-      <c r="F14" s="33" t="s">
-        <v>100</v>
-      </c>
-      <c r="G14" s="33" t="s">
-        <v>100</v>
-      </c>
-      <c r="H14" s="33"/>
-      <c r="I14" s="33" t="s">
-        <v>100</v>
-      </c>
-      <c r="J14" s="33" t="s">
-        <v>100</v>
-      </c>
-      <c r="K14" s="33"/>
-      <c r="L14" s="33"/>
-      <c r="M14" s="33" t="s">
-        <v>100</v>
-      </c>
-      <c r="N14" s="33"/>
-      <c r="O14" s="33"/>
-      <c r="P14" s="33" t="s">
-        <v>100</v>
-      </c>
-      <c r="Q14" s="33" t="s">
-        <v>100</v>
-      </c>
-      <c r="R14" s="33"/>
-      <c r="S14" s="33"/>
-      <c r="T14" s="33" t="s">
-        <v>100</v>
-      </c>
-      <c r="U14" s="33" t="s">
+      <c r="C14" s="67"/>
+      <c r="D14" s="67"/>
+      <c r="E14" s="67"/>
+      <c r="F14" s="67" t="s">
+        <v>100</v>
+      </c>
+      <c r="G14" s="67"/>
+      <c r="H14" s="67"/>
+      <c r="I14" s="67"/>
+      <c r="J14" s="67" t="s">
+        <v>100</v>
+      </c>
+      <c r="K14" s="67"/>
+      <c r="L14" s="67"/>
+      <c r="M14" s="67" t="s">
+        <v>100</v>
+      </c>
+      <c r="N14" s="67"/>
+      <c r="O14" s="67"/>
+      <c r="P14" s="67"/>
+      <c r="Q14" s="67" t="s">
+        <v>100</v>
+      </c>
+      <c r="R14" s="67"/>
+      <c r="S14" s="67"/>
+      <c r="T14" s="67" t="s">
+        <v>100</v>
+      </c>
+      <c r="U14" s="67" t="s">
         <v>100</v>
       </c>
       <c r="V14" s="35"/>
     </row>
-    <row r="15" spans="1:27" ht="15.5">
-      <c r="A15" s="54"/>
+    <row r="15" spans="1:22" ht="15.5">
+      <c r="A15" s="52"/>
       <c r="B15" s="32">
         <v>2.6</v>
       </c>
-      <c r="C15" s="33"/>
-      <c r="D15" s="33"/>
-      <c r="E15" s="33"/>
-      <c r="F15" s="33" t="s">
-        <v>100</v>
-      </c>
-      <c r="G15" s="33"/>
-      <c r="H15" s="33"/>
-      <c r="I15" s="33"/>
-      <c r="J15" s="33" t="s">
-        <v>100</v>
-      </c>
-      <c r="K15" s="33"/>
-      <c r="L15" s="33"/>
-      <c r="M15" s="33" t="s">
-        <v>100</v>
-      </c>
-      <c r="N15" s="33"/>
-      <c r="O15" s="33"/>
-      <c r="P15" s="33"/>
-      <c r="Q15" s="33" t="s">
-        <v>100</v>
-      </c>
-      <c r="R15" s="33"/>
-      <c r="S15" s="33"/>
-      <c r="T15" s="33" t="s">
-        <v>100</v>
-      </c>
-      <c r="U15" s="33" t="s">
+      <c r="C15" s="67"/>
+      <c r="D15" s="67"/>
+      <c r="E15" s="67"/>
+      <c r="F15" s="67" t="s">
+        <v>100</v>
+      </c>
+      <c r="G15" s="67"/>
+      <c r="H15" s="67"/>
+      <c r="I15" s="67"/>
+      <c r="J15" s="67" t="s">
+        <v>100</v>
+      </c>
+      <c r="K15" s="67"/>
+      <c r="L15" s="67"/>
+      <c r="M15" s="67" t="s">
+        <v>100</v>
+      </c>
+      <c r="N15" s="67"/>
+      <c r="O15" s="67"/>
+      <c r="P15" s="67"/>
+      <c r="Q15" s="67" t="s">
+        <v>100</v>
+      </c>
+      <c r="R15" s="67"/>
+      <c r="S15" s="67"/>
+      <c r="T15" s="67"/>
+      <c r="U15" s="67" t="s">
         <v>100</v>
       </c>
       <c r="V15" s="35"/>
     </row>
-    <row r="16" spans="1:27" ht="15.5">
-      <c r="A16" s="54"/>
+    <row r="16" spans="1:22" ht="15.5">
+      <c r="A16" s="52"/>
       <c r="B16" s="32">
         <v>2.7</v>
       </c>
-      <c r="C16" s="33"/>
-      <c r="D16" s="33"/>
-      <c r="E16" s="33"/>
-      <c r="F16" s="33" t="s">
-        <v>100</v>
-      </c>
-      <c r="G16" s="33"/>
-      <c r="H16" s="33"/>
-      <c r="I16" s="33"/>
-      <c r="J16" s="33" t="s">
-        <v>100</v>
-      </c>
-      <c r="K16" s="33"/>
-      <c r="L16" s="33"/>
-      <c r="M16" s="33" t="s">
-        <v>100</v>
-      </c>
-      <c r="N16" s="33"/>
-      <c r="O16" s="33"/>
-      <c r="P16" s="33"/>
-      <c r="Q16" s="33" t="s">
-        <v>100</v>
-      </c>
-      <c r="R16" s="33"/>
-      <c r="S16" s="33"/>
-      <c r="T16" s="33"/>
-      <c r="U16" s="33"/>
+      <c r="C16" s="67"/>
+      <c r="D16" s="67"/>
+      <c r="E16" s="67"/>
+      <c r="F16" s="67"/>
+      <c r="G16" s="67"/>
+      <c r="H16" s="67"/>
+      <c r="I16" s="67"/>
+      <c r="J16" s="67"/>
+      <c r="K16" s="67"/>
+      <c r="L16" s="67"/>
+      <c r="M16" s="67"/>
+      <c r="N16" s="67"/>
+      <c r="O16" s="67"/>
+      <c r="P16" s="67"/>
+      <c r="Q16" s="67" t="s">
+        <v>100</v>
+      </c>
+      <c r="R16" s="67"/>
+      <c r="S16" s="67"/>
+      <c r="T16" s="67"/>
+      <c r="U16" s="67"/>
       <c r="V16" s="35"/>
     </row>
     <row r="17" spans="1:22" ht="15.5">
-      <c r="A17" s="54"/>
+      <c r="A17" s="52"/>
       <c r="B17" s="32">
         <v>2.8</v>
       </c>
-      <c r="C17" s="33"/>
-      <c r="D17" s="33"/>
-      <c r="E17" s="33"/>
-      <c r="F17" s="33"/>
-      <c r="G17" s="33"/>
-      <c r="H17" s="33"/>
-      <c r="I17" s="33"/>
-      <c r="J17" s="33"/>
-      <c r="K17" s="33"/>
-      <c r="L17" s="33"/>
-      <c r="M17" s="33"/>
-      <c r="N17" s="33"/>
-      <c r="O17" s="33"/>
-      <c r="P17" s="33"/>
-      <c r="Q17" s="33" t="s">
-        <v>100</v>
-      </c>
-      <c r="R17" s="33"/>
-      <c r="S17" s="33"/>
-      <c r="T17" s="33"/>
-      <c r="U17" s="33"/>
+      <c r="C17" s="67"/>
+      <c r="D17" s="67"/>
+      <c r="E17" s="67"/>
+      <c r="F17" s="67"/>
+      <c r="G17" s="67"/>
+      <c r="H17" s="67"/>
+      <c r="I17" s="67"/>
+      <c r="J17" s="67"/>
+      <c r="K17" s="67"/>
+      <c r="L17" s="67"/>
+      <c r="M17" s="67"/>
+      <c r="N17" s="67"/>
+      <c r="O17" s="67"/>
+      <c r="P17" s="67"/>
+      <c r="Q17" s="67" t="s">
+        <v>100</v>
+      </c>
+      <c r="R17" s="67"/>
+      <c r="S17" s="67"/>
+      <c r="T17" s="67"/>
+      <c r="U17" s="67"/>
       <c r="V17" s="35"/>
     </row>
     <row r="18" spans="1:22" ht="15.5">
-      <c r="A18" s="54" t="s">
-        <v>103</v>
+      <c r="A18" s="52" t="s">
+        <v>102</v>
       </c>
       <c r="B18" s="33" t="s">
-        <v>103</v>
-      </c>
-      <c r="C18" s="34"/>
-      <c r="D18" s="34"/>
-      <c r="E18" s="34"/>
-      <c r="F18" s="34"/>
-      <c r="G18" s="34"/>
-      <c r="H18" s="34"/>
-      <c r="I18" s="34"/>
-      <c r="J18" s="34"/>
-      <c r="K18" s="34"/>
-      <c r="L18" s="34"/>
-      <c r="M18" s="34"/>
-      <c r="N18" s="34"/>
-      <c r="O18" s="34"/>
-      <c r="P18" s="34"/>
-      <c r="Q18" s="34" t="s">
-        <v>100</v>
-      </c>
-      <c r="R18" s="34"/>
-      <c r="S18" s="34"/>
-      <c r="T18" s="34"/>
-      <c r="U18" s="33"/>
+        <v>102</v>
+      </c>
+      <c r="C18" s="66" t="s">
+        <v>99</v>
+      </c>
+      <c r="D18" s="66" t="s">
+        <v>99</v>
+      </c>
+      <c r="E18" s="66" t="s">
+        <v>99</v>
+      </c>
+      <c r="F18" s="66" t="s">
+        <v>99</v>
+      </c>
+      <c r="G18" s="66" t="s">
+        <v>99</v>
+      </c>
+      <c r="H18" s="66" t="s">
+        <v>99</v>
+      </c>
+      <c r="I18" s="66" t="s">
+        <v>99</v>
+      </c>
+      <c r="J18" s="66" t="s">
+        <v>99</v>
+      </c>
+      <c r="K18" s="66" t="s">
+        <v>99</v>
+      </c>
+      <c r="L18" s="66" t="s">
+        <v>99</v>
+      </c>
+      <c r="M18" s="66" t="s">
+        <v>99</v>
+      </c>
+      <c r="N18" s="66" t="s">
+        <v>99</v>
+      </c>
+      <c r="O18" s="66" t="s">
+        <v>99</v>
+      </c>
+      <c r="P18" s="66" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q18" s="66" t="s">
+        <v>99</v>
+      </c>
+      <c r="R18" s="66" t="s">
+        <v>99</v>
+      </c>
+      <c r="S18" s="66" t="s">
+        <v>99</v>
+      </c>
+      <c r="T18" s="66" t="s">
+        <v>99</v>
+      </c>
+      <c r="U18" s="67"/>
       <c r="V18" s="35"/>
     </row>
     <row r="19" spans="1:22" ht="15.5">
-      <c r="A19" s="54"/>
+      <c r="A19" s="52"/>
       <c r="B19" s="32">
         <v>3.1</v>
       </c>
-      <c r="C19" s="33" t="s">
-        <v>99</v>
-      </c>
-      <c r="D19" s="33" t="s">
-        <v>99</v>
-      </c>
-      <c r="E19" s="33" t="s">
-        <v>99</v>
-      </c>
-      <c r="F19" s="33" t="s">
-        <v>99</v>
-      </c>
-      <c r="G19" s="33" t="s">
-        <v>99</v>
-      </c>
-      <c r="H19" s="33" t="s">
-        <v>99</v>
-      </c>
-      <c r="I19" s="33" t="s">
-        <v>99</v>
-      </c>
-      <c r="J19" s="33" t="s">
-        <v>99</v>
-      </c>
-      <c r="K19" s="33" t="s">
-        <v>99</v>
-      </c>
-      <c r="L19" s="33" t="s">
-        <v>99</v>
-      </c>
-      <c r="M19" s="33" t="s">
-        <v>99</v>
-      </c>
-      <c r="N19" s="33" t="s">
-        <v>99</v>
-      </c>
-      <c r="O19" s="33" t="s">
-        <v>99</v>
-      </c>
-      <c r="P19" s="33" t="s">
-        <v>99</v>
-      </c>
-      <c r="Q19" s="33" t="s">
-        <v>99</v>
-      </c>
-      <c r="R19" s="33" t="s">
-        <v>99</v>
-      </c>
-      <c r="S19" s="33" t="s">
-        <v>99</v>
-      </c>
-      <c r="T19" s="33" t="s">
-        <v>99</v>
-      </c>
-      <c r="U19" s="33"/>
+      <c r="C19" s="67" t="s">
+        <v>100</v>
+      </c>
+      <c r="D19" s="67" t="s">
+        <v>100</v>
+      </c>
+      <c r="E19" s="67" t="s">
+        <v>100</v>
+      </c>
+      <c r="F19" s="67" t="s">
+        <v>100</v>
+      </c>
+      <c r="G19" s="67" t="s">
+        <v>100</v>
+      </c>
+      <c r="H19" s="67" t="s">
+        <v>100</v>
+      </c>
+      <c r="I19" s="67" t="s">
+        <v>100</v>
+      </c>
+      <c r="J19" s="67" t="s">
+        <v>100</v>
+      </c>
+      <c r="K19" s="67" t="s">
+        <v>100</v>
+      </c>
+      <c r="L19" s="67" t="s">
+        <v>100</v>
+      </c>
+      <c r="M19" s="67" t="s">
+        <v>100</v>
+      </c>
+      <c r="N19" s="67" t="s">
+        <v>100</v>
+      </c>
+      <c r="O19" s="67" t="s">
+        <v>100</v>
+      </c>
+      <c r="P19" s="67" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q19" s="67" t="s">
+        <v>100</v>
+      </c>
+      <c r="R19" s="67" t="s">
+        <v>100</v>
+      </c>
+      <c r="S19" s="67" t="s">
+        <v>100</v>
+      </c>
+      <c r="T19" s="67" t="s">
+        <v>100</v>
+      </c>
+      <c r="U19" s="67"/>
       <c r="V19" s="35" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="20" spans="1:22" ht="15.5">
-      <c r="A20" s="54"/>
+      <c r="A20" s="52"/>
       <c r="B20" s="32">
         <v>3.2</v>
       </c>
-      <c r="C20" s="33" t="s">
-        <v>100</v>
-      </c>
-      <c r="D20" s="33" t="s">
-        <v>100</v>
-      </c>
-      <c r="E20" s="33" t="s">
-        <v>100</v>
-      </c>
-      <c r="F20" s="33" t="s">
-        <v>100</v>
-      </c>
-      <c r="G20" s="33" t="s">
-        <v>100</v>
-      </c>
-      <c r="H20" s="33" t="s">
-        <v>100</v>
-      </c>
-      <c r="I20" s="33" t="s">
-        <v>100</v>
-      </c>
-      <c r="J20" s="33" t="s">
-        <v>100</v>
-      </c>
-      <c r="K20" s="33" t="s">
-        <v>100</v>
-      </c>
-      <c r="L20" s="33" t="s">
-        <v>100</v>
-      </c>
-      <c r="M20" s="33" t="s">
-        <v>100</v>
-      </c>
-      <c r="N20" s="33" t="s">
-        <v>100</v>
-      </c>
-      <c r="O20" s="33" t="s">
-        <v>100</v>
-      </c>
-      <c r="P20" s="33" t="s">
-        <v>100</v>
-      </c>
-      <c r="Q20" s="33" t="s">
-        <v>100</v>
-      </c>
-      <c r="R20" s="33" t="s">
-        <v>100</v>
-      </c>
-      <c r="S20" s="33" t="s">
-        <v>100</v>
-      </c>
-      <c r="T20" s="33" t="s">
-        <v>100</v>
-      </c>
-      <c r="U20" s="33"/>
+      <c r="C20" s="67" t="s">
+        <v>100</v>
+      </c>
+      <c r="D20" s="67" t="s">
+        <v>100</v>
+      </c>
+      <c r="E20" s="67" t="s">
+        <v>100</v>
+      </c>
+      <c r="F20" s="67" t="s">
+        <v>100</v>
+      </c>
+      <c r="G20" s="67"/>
+      <c r="H20" s="67"/>
+      <c r="I20" s="67"/>
+      <c r="J20" s="67" t="s">
+        <v>100</v>
+      </c>
+      <c r="K20" s="67" t="s">
+        <v>100</v>
+      </c>
+      <c r="L20" s="67" t="s">
+        <v>100</v>
+      </c>
+      <c r="M20" s="67" t="s">
+        <v>100</v>
+      </c>
+      <c r="N20" s="67" t="s">
+        <v>100</v>
+      </c>
+      <c r="O20" s="67" t="s">
+        <v>100</v>
+      </c>
+      <c r="P20" s="67" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q20" s="67" t="s">
+        <v>100</v>
+      </c>
+      <c r="R20" s="67" t="s">
+        <v>100</v>
+      </c>
+      <c r="S20" s="67" t="s">
+        <v>100</v>
+      </c>
+      <c r="T20" s="67"/>
+      <c r="U20" s="67"/>
       <c r="V20" s="35" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="21" spans="1:22" ht="15.5">
-      <c r="A21" s="54"/>
+      <c r="A21" s="52"/>
       <c r="B21" s="32">
         <v>3.3</v>
       </c>
-      <c r="C21" s="33" t="s">
-        <v>100</v>
-      </c>
-      <c r="D21" s="33" t="s">
-        <v>100</v>
-      </c>
-      <c r="E21" s="33" t="s">
-        <v>100</v>
-      </c>
-      <c r="F21" s="33" t="s">
-        <v>100</v>
-      </c>
-      <c r="G21" s="33"/>
-      <c r="H21" s="33" t="s">
-        <v>100</v>
-      </c>
-      <c r="I21" s="33"/>
-      <c r="J21" s="33" t="s">
-        <v>100</v>
-      </c>
-      <c r="K21" s="33" t="s">
-        <v>100</v>
-      </c>
-      <c r="L21" s="33" t="s">
-        <v>100</v>
-      </c>
-      <c r="M21" s="33" t="s">
-        <v>100</v>
-      </c>
-      <c r="N21" s="33" t="s">
-        <v>100</v>
-      </c>
-      <c r="O21" s="33" t="s">
-        <v>100</v>
-      </c>
-      <c r="P21" s="33" t="s">
-        <v>100</v>
-      </c>
-      <c r="Q21" s="33" t="s">
-        <v>100</v>
-      </c>
-      <c r="R21" s="33" t="s">
-        <v>100</v>
-      </c>
-      <c r="S21" s="33" t="s">
-        <v>100</v>
-      </c>
-      <c r="T21" s="33"/>
-      <c r="U21" s="33"/>
+      <c r="C21" s="67"/>
+      <c r="D21" s="67" t="s">
+        <v>100</v>
+      </c>
+      <c r="E21" s="67" t="s">
+        <v>100</v>
+      </c>
+      <c r="F21" s="67" t="s">
+        <v>100</v>
+      </c>
+      <c r="G21" s="67"/>
+      <c r="H21" s="67"/>
+      <c r="I21" s="67"/>
+      <c r="J21" s="67" t="s">
+        <v>100</v>
+      </c>
+      <c r="K21" s="67" t="s">
+        <v>100</v>
+      </c>
+      <c r="L21" s="67" t="s">
+        <v>100</v>
+      </c>
+      <c r="M21" s="67" t="s">
+        <v>100</v>
+      </c>
+      <c r="N21" s="67" t="s">
+        <v>100</v>
+      </c>
+      <c r="O21" s="67" t="s">
+        <v>100</v>
+      </c>
+      <c r="P21" s="67" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q21" s="67" t="s">
+        <v>100</v>
+      </c>
+      <c r="R21" s="67"/>
+      <c r="S21" s="67" t="s">
+        <v>100</v>
+      </c>
+      <c r="T21" s="67"/>
+      <c r="U21" s="67"/>
       <c r="V21" s="35"/>
     </row>
     <row r="22" spans="1:22" ht="15.5">
-      <c r="A22" s="54"/>
+      <c r="A22" s="52"/>
       <c r="B22" s="32">
         <v>3.4</v>
       </c>
-      <c r="C22" s="33"/>
-      <c r="D22" s="33" t="s">
-        <v>100</v>
-      </c>
-      <c r="E22" s="33" t="s">
-        <v>100</v>
-      </c>
-      <c r="F22" s="33" t="s">
-        <v>100</v>
-      </c>
-      <c r="G22" s="33"/>
-      <c r="H22" s="33"/>
-      <c r="I22" s="33"/>
-      <c r="J22" s="33" t="s">
-        <v>100</v>
-      </c>
-      <c r="K22" s="33" t="s">
-        <v>100</v>
-      </c>
-      <c r="L22" s="33" t="s">
-        <v>100</v>
-      </c>
-      <c r="M22" s="33" t="s">
-        <v>100</v>
-      </c>
-      <c r="N22" s="33" t="s">
-        <v>100</v>
-      </c>
-      <c r="O22" s="33" t="s">
-        <v>100</v>
-      </c>
-      <c r="P22" s="33" t="s">
-        <v>100</v>
-      </c>
-      <c r="Q22" s="33" t="s">
-        <v>100</v>
-      </c>
-      <c r="R22" s="33"/>
-      <c r="S22" s="33" t="s">
-        <v>100</v>
-      </c>
-      <c r="T22" s="33"/>
-      <c r="U22" s="33"/>
+      <c r="C22" s="67"/>
+      <c r="D22" s="67"/>
+      <c r="E22" s="67" t="s">
+        <v>100</v>
+      </c>
+      <c r="F22" s="67"/>
+      <c r="G22" s="67"/>
+      <c r="H22" s="67"/>
+      <c r="I22" s="67"/>
+      <c r="J22" s="67" t="s">
+        <v>100</v>
+      </c>
+      <c r="K22" s="67" t="s">
+        <v>100</v>
+      </c>
+      <c r="L22" s="67" t="s">
+        <v>100</v>
+      </c>
+      <c r="M22" s="67" t="s">
+        <v>100</v>
+      </c>
+      <c r="N22" s="67" t="s">
+        <v>100</v>
+      </c>
+      <c r="O22" s="67" t="s">
+        <v>100</v>
+      </c>
+      <c r="P22" s="67" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q22" s="67" t="s">
+        <v>100</v>
+      </c>
+      <c r="R22" s="67"/>
+      <c r="S22" s="67" t="s">
+        <v>100</v>
+      </c>
+      <c r="T22" s="67"/>
+      <c r="U22" s="67"/>
       <c r="V22" s="35"/>
     </row>
     <row r="23" spans="1:22" ht="15.5">
-      <c r="A23" s="54"/>
+      <c r="A23" s="52"/>
       <c r="B23" s="32">
         <v>3.5</v>
       </c>
-      <c r="C23" s="33"/>
-      <c r="D23" s="33"/>
-      <c r="E23" s="33" t="s">
-        <v>100</v>
-      </c>
-      <c r="F23" s="33"/>
-      <c r="G23" s="33"/>
-      <c r="H23" s="33"/>
-      <c r="I23" s="33"/>
-      <c r="J23" s="33" t="s">
-        <v>100</v>
-      </c>
-      <c r="K23" s="33" t="s">
-        <v>100</v>
-      </c>
-      <c r="L23" s="33" t="s">
-        <v>100</v>
-      </c>
-      <c r="M23" s="33" t="s">
-        <v>100</v>
-      </c>
-      <c r="N23" s="33" t="s">
-        <v>100</v>
-      </c>
-      <c r="O23" s="33" t="s">
-        <v>100</v>
-      </c>
-      <c r="P23" s="33" t="s">
-        <v>100</v>
-      </c>
-      <c r="Q23" s="33" t="s">
-        <v>100</v>
-      </c>
-      <c r="R23" s="33"/>
-      <c r="S23" s="33" t="s">
-        <v>100</v>
-      </c>
-      <c r="T23" s="33"/>
-      <c r="U23" s="33"/>
+      <c r="C23" s="67"/>
+      <c r="D23" s="67"/>
+      <c r="E23" s="67" t="s">
+        <v>100</v>
+      </c>
+      <c r="F23" s="67"/>
+      <c r="G23" s="67"/>
+      <c r="H23" s="67"/>
+      <c r="I23" s="67"/>
+      <c r="J23" s="67" t="s">
+        <v>100</v>
+      </c>
+      <c r="K23" s="67" t="s">
+        <v>100</v>
+      </c>
+      <c r="L23" s="67" t="s">
+        <v>100</v>
+      </c>
+      <c r="M23" s="67" t="s">
+        <v>100</v>
+      </c>
+      <c r="N23" s="67" t="s">
+        <v>100</v>
+      </c>
+      <c r="O23" s="67" t="s">
+        <v>100</v>
+      </c>
+      <c r="P23" s="67"/>
+      <c r="Q23" s="67"/>
+      <c r="R23" s="67"/>
+      <c r="S23" s="67" t="s">
+        <v>100</v>
+      </c>
+      <c r="T23" s="67"/>
+      <c r="U23" s="67"/>
       <c r="V23" s="35"/>
     </row>
     <row r="24" spans="1:22" ht="15.5">
-      <c r="A24" s="54"/>
+      <c r="A24" s="52"/>
       <c r="B24" s="32">
         <v>3.6</v>
       </c>
-      <c r="C24" s="33"/>
-      <c r="D24" s="33"/>
-      <c r="E24" s="33" t="s">
-        <v>100</v>
-      </c>
-      <c r="F24" s="33"/>
-      <c r="G24" s="33"/>
-      <c r="H24" s="33"/>
-      <c r="I24" s="33"/>
-      <c r="J24" s="33" t="s">
-        <v>100</v>
-      </c>
-      <c r="K24" s="33" t="s">
-        <v>100</v>
-      </c>
-      <c r="L24" s="33" t="s">
-        <v>100</v>
-      </c>
-      <c r="M24" s="33" t="s">
-        <v>100</v>
-      </c>
-      <c r="N24" s="33" t="s">
-        <v>100</v>
-      </c>
-      <c r="O24" s="33" t="s">
-        <v>100</v>
-      </c>
-      <c r="P24" s="33"/>
-      <c r="Q24" s="33"/>
-      <c r="R24" s="33"/>
-      <c r="S24" s="33" t="s">
-        <v>100</v>
-      </c>
-      <c r="T24" s="33"/>
-      <c r="U24" s="33"/>
+      <c r="C24" s="67"/>
+      <c r="D24" s="67"/>
+      <c r="E24" s="67" t="s">
+        <v>100</v>
+      </c>
+      <c r="F24" s="67"/>
+      <c r="G24" s="67"/>
+      <c r="H24" s="67"/>
+      <c r="I24" s="67"/>
+      <c r="J24" s="67" t="s">
+        <v>100</v>
+      </c>
+      <c r="K24" s="67" t="s">
+        <v>100</v>
+      </c>
+      <c r="L24" s="67" t="s">
+        <v>100</v>
+      </c>
+      <c r="M24" s="67" t="s">
+        <v>100</v>
+      </c>
+      <c r="N24" s="67"/>
+      <c r="O24" s="67" t="s">
+        <v>100</v>
+      </c>
+      <c r="P24" s="67"/>
+      <c r="Q24" s="67"/>
+      <c r="R24" s="67"/>
+      <c r="S24" s="67"/>
+      <c r="T24" s="67"/>
+      <c r="U24" s="67"/>
       <c r="V24" s="35"/>
     </row>
     <row r="25" spans="1:22" ht="15.5">
-      <c r="A25" s="54"/>
+      <c r="A25" s="52"/>
       <c r="B25" s="32">
         <v>3.7</v>
       </c>
-      <c r="C25" s="33"/>
-      <c r="D25" s="33"/>
-      <c r="E25" s="33" t="s">
-        <v>100</v>
-      </c>
-      <c r="F25" s="33"/>
-      <c r="G25" s="33"/>
-      <c r="H25" s="33"/>
-      <c r="I25" s="33"/>
-      <c r="J25" s="33" t="s">
-        <v>100</v>
-      </c>
-      <c r="K25" s="33" t="s">
-        <v>100</v>
-      </c>
-      <c r="L25" s="33" t="s">
-        <v>100</v>
-      </c>
-      <c r="M25" s="33" t="s">
-        <v>100</v>
-      </c>
-      <c r="N25" s="33"/>
-      <c r="O25" s="33" t="s">
-        <v>100</v>
-      </c>
-      <c r="P25" s="33"/>
-      <c r="Q25" s="33"/>
-      <c r="R25" s="33"/>
-      <c r="S25" s="33"/>
-      <c r="T25" s="33"/>
-      <c r="U25" s="33"/>
+      <c r="C25" s="67"/>
+      <c r="D25" s="67"/>
+      <c r="E25" s="67"/>
+      <c r="F25" s="67"/>
+      <c r="G25" s="67"/>
+      <c r="H25" s="67"/>
+      <c r="I25" s="67"/>
+      <c r="J25" s="67" t="s">
+        <v>100</v>
+      </c>
+      <c r="K25" s="67"/>
+      <c r="L25" s="67" t="s">
+        <v>100</v>
+      </c>
+      <c r="M25" s="67"/>
+      <c r="N25" s="67"/>
+      <c r="O25" s="67"/>
+      <c r="P25" s="67"/>
+      <c r="Q25" s="67"/>
+      <c r="R25" s="67"/>
+      <c r="S25" s="67"/>
+      <c r="T25" s="67"/>
+      <c r="U25" s="67"/>
       <c r="V25" s="35"/>
     </row>
     <row r="26" spans="1:22" ht="15.5">
-      <c r="A26" s="54" t="s">
+      <c r="A26" s="52" t="s">
+        <v>103</v>
+      </c>
+      <c r="B26" s="33" t="s">
         <v>104</v>
       </c>
-      <c r="B26" s="33" t="s">
-        <v>105</v>
-      </c>
-      <c r="C26" s="34"/>
-      <c r="D26" s="33"/>
-      <c r="E26" s="33"/>
-      <c r="F26" s="33"/>
-      <c r="G26" s="33"/>
-      <c r="H26" s="33"/>
-      <c r="I26" s="33"/>
-      <c r="J26" s="33" t="s">
-        <v>100</v>
-      </c>
-      <c r="K26" s="34"/>
-      <c r="L26" s="33" t="s">
-        <v>100</v>
-      </c>
-      <c r="M26" s="34"/>
-      <c r="N26" s="33"/>
-      <c r="O26" s="33"/>
-      <c r="P26" s="33"/>
-      <c r="Q26" s="34"/>
-      <c r="R26" s="33"/>
-      <c r="S26" s="34"/>
-      <c r="T26" s="33"/>
-      <c r="U26" s="33"/>
+      <c r="C26" s="66" t="s">
+        <v>99</v>
+      </c>
+      <c r="D26" s="67"/>
+      <c r="E26" s="67"/>
+      <c r="F26" s="67"/>
+      <c r="G26" s="67"/>
+      <c r="H26" s="67"/>
+      <c r="I26" s="67"/>
+      <c r="J26" s="67"/>
+      <c r="K26" s="66" t="s">
+        <v>99</v>
+      </c>
+      <c r="L26" s="67"/>
+      <c r="M26" s="66" t="s">
+        <v>99</v>
+      </c>
+      <c r="N26" s="67"/>
+      <c r="O26" s="67"/>
+      <c r="P26" s="67"/>
+      <c r="Q26" s="66" t="s">
+        <v>99</v>
+      </c>
+      <c r="R26" s="67"/>
+      <c r="S26" s="66" t="s">
+        <v>99</v>
+      </c>
+      <c r="T26" s="67"/>
+      <c r="U26" s="67"/>
       <c r="V26" s="35"/>
     </row>
     <row r="27" spans="1:22" ht="15.5">
-      <c r="A27" s="54"/>
+      <c r="A27" s="52"/>
       <c r="B27" s="32">
         <v>4.0999999999999996</v>
       </c>
-      <c r="C27" s="33" t="s">
-        <v>99</v>
-      </c>
-      <c r="D27" s="33"/>
-      <c r="E27" s="33"/>
-      <c r="F27" s="33"/>
-      <c r="G27" s="33"/>
-      <c r="H27" s="33"/>
-      <c r="I27" s="33"/>
-      <c r="J27" s="33"/>
-      <c r="K27" s="33" t="s">
-        <v>99</v>
-      </c>
-      <c r="L27" s="33"/>
-      <c r="M27" s="33" t="s">
-        <v>99</v>
-      </c>
-      <c r="N27" s="33"/>
-      <c r="O27" s="33"/>
-      <c r="P27" s="33"/>
-      <c r="Q27" s="33" t="s">
-        <v>99</v>
-      </c>
-      <c r="R27" s="33"/>
-      <c r="S27" s="33" t="s">
-        <v>99</v>
-      </c>
-      <c r="T27" s="33"/>
-      <c r="U27" s="33"/>
+      <c r="C27" s="67" t="s">
+        <v>100</v>
+      </c>
+      <c r="D27" s="67"/>
+      <c r="E27" s="67"/>
+      <c r="F27" s="67"/>
+      <c r="G27" s="67"/>
+      <c r="H27" s="67"/>
+      <c r="I27" s="67"/>
+      <c r="J27" s="67"/>
+      <c r="K27" s="67" t="s">
+        <v>100</v>
+      </c>
+      <c r="L27" s="67"/>
+      <c r="M27" s="67" t="s">
+        <v>100</v>
+      </c>
+      <c r="N27" s="67"/>
+      <c r="O27" s="67"/>
+      <c r="P27" s="67"/>
+      <c r="Q27" s="67" t="s">
+        <v>100</v>
+      </c>
+      <c r="R27" s="67"/>
+      <c r="S27" s="67" t="s">
+        <v>100</v>
+      </c>
+      <c r="T27" s="67"/>
+      <c r="U27" s="67"/>
       <c r="V27" s="35" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="28" spans="1:22" ht="15.5">
-      <c r="A28" s="54"/>
+      <c r="A28" s="52"/>
       <c r="B28" s="32">
         <v>4.2</v>
       </c>
-      <c r="C28" s="33" t="s">
-        <v>100</v>
-      </c>
-      <c r="D28" s="33"/>
-      <c r="E28" s="33"/>
-      <c r="F28" s="33"/>
-      <c r="G28" s="33"/>
-      <c r="H28" s="33"/>
-      <c r="I28" s="33"/>
-      <c r="J28" s="33"/>
-      <c r="K28" s="33" t="s">
-        <v>100</v>
-      </c>
-      <c r="L28" s="33"/>
-      <c r="M28" s="33" t="s">
-        <v>100</v>
-      </c>
-      <c r="N28" s="33"/>
-      <c r="O28" s="33"/>
-      <c r="P28" s="33"/>
-      <c r="Q28" s="33" t="s">
-        <v>100</v>
-      </c>
-      <c r="R28" s="33"/>
-      <c r="S28" s="33" t="s">
-        <v>100</v>
-      </c>
-      <c r="T28" s="33"/>
-      <c r="U28" s="33"/>
+      <c r="C28" s="67"/>
+      <c r="D28" s="67"/>
+      <c r="E28" s="67"/>
+      <c r="F28" s="67"/>
+      <c r="G28" s="67"/>
+      <c r="H28" s="67"/>
+      <c r="I28" s="67"/>
+      <c r="J28" s="67"/>
+      <c r="K28" s="67"/>
+      <c r="L28" s="67"/>
+      <c r="M28" s="67" t="s">
+        <v>100</v>
+      </c>
+      <c r="N28" s="67"/>
+      <c r="O28" s="67"/>
+      <c r="P28" s="67"/>
+      <c r="Q28" s="67"/>
+      <c r="R28" s="67"/>
+      <c r="S28" s="67" t="s">
+        <v>100</v>
+      </c>
+      <c r="T28" s="67"/>
+      <c r="U28" s="67"/>
       <c r="V28" s="35"/>
     </row>
     <row r="29" spans="1:22" ht="15.5">
-      <c r="A29" s="54"/>
+      <c r="A29" s="52"/>
       <c r="B29" s="32">
         <v>4.3</v>
       </c>
-      <c r="C29" s="33"/>
-      <c r="D29" s="33"/>
-      <c r="E29" s="33"/>
-      <c r="F29" s="33"/>
-      <c r="G29" s="33"/>
-      <c r="H29" s="33"/>
-      <c r="I29" s="33"/>
-      <c r="J29" s="33"/>
-      <c r="K29" s="33"/>
-      <c r="L29" s="33"/>
-      <c r="M29" s="33" t="s">
-        <v>100</v>
-      </c>
-      <c r="N29" s="33"/>
-      <c r="O29" s="33"/>
-      <c r="P29" s="33"/>
-      <c r="Q29" s="33"/>
-      <c r="R29" s="33"/>
-      <c r="S29" s="33" t="s">
-        <v>100</v>
-      </c>
-      <c r="T29" s="33"/>
-      <c r="U29" s="33"/>
+      <c r="C29" s="67"/>
+      <c r="D29" s="67"/>
+      <c r="E29" s="67"/>
+      <c r="F29" s="67"/>
+      <c r="G29" s="67"/>
+      <c r="H29" s="67"/>
+      <c r="I29" s="67"/>
+      <c r="J29" s="67"/>
+      <c r="K29" s="67"/>
+      <c r="L29" s="67"/>
+      <c r="M29" s="67" t="s">
+        <v>100</v>
+      </c>
+      <c r="N29" s="67"/>
+      <c r="O29" s="67"/>
+      <c r="P29" s="67"/>
+      <c r="Q29" s="67"/>
+      <c r="R29" s="67"/>
+      <c r="S29" s="67"/>
+      <c r="T29" s="67"/>
+      <c r="U29" s="67"/>
       <c r="V29" s="35"/>
     </row>
     <row r="30" spans="1:22" ht="15.5">
-      <c r="A30" s="54"/>
+      <c r="A30" s="52"/>
       <c r="B30" s="32">
         <v>4.4000000000000004</v>
       </c>
-      <c r="C30" s="33"/>
-      <c r="D30" s="33"/>
-      <c r="E30" s="33"/>
-      <c r="F30" s="33"/>
-      <c r="G30" s="33"/>
-      <c r="H30" s="33"/>
-      <c r="I30" s="33"/>
-      <c r="J30" s="33"/>
-      <c r="K30" s="33"/>
-      <c r="L30" s="33"/>
-      <c r="M30" s="33" t="s">
-        <v>100</v>
-      </c>
-      <c r="N30" s="33"/>
-      <c r="O30" s="33"/>
-      <c r="P30" s="33"/>
-      <c r="Q30" s="33"/>
-      <c r="R30" s="33"/>
-      <c r="S30" s="33"/>
-      <c r="T30" s="33"/>
-      <c r="U30" s="33"/>
+      <c r="C30" s="67"/>
+      <c r="D30" s="67"/>
+      <c r="E30" s="67"/>
+      <c r="F30" s="67"/>
+      <c r="G30" s="67"/>
+      <c r="H30" s="67"/>
+      <c r="I30" s="67"/>
+      <c r="J30" s="67"/>
+      <c r="K30" s="67"/>
+      <c r="L30" s="67"/>
+      <c r="M30" s="67" t="s">
+        <v>100</v>
+      </c>
+      <c r="N30" s="67"/>
+      <c r="O30" s="67"/>
+      <c r="P30" s="67"/>
+      <c r="Q30" s="67"/>
+      <c r="R30" s="67"/>
+      <c r="S30" s="67"/>
+      <c r="T30" s="67"/>
+      <c r="U30" s="67"/>
       <c r="V30" s="35"/>
     </row>
     <row r="31" spans="1:22" ht="15.5">
-      <c r="A31" s="54"/>
+      <c r="A31" s="52"/>
       <c r="B31" s="32">
         <v>4.5</v>
       </c>
-      <c r="C31" s="33"/>
-      <c r="D31" s="33"/>
-      <c r="E31" s="33"/>
-      <c r="F31" s="33"/>
-      <c r="G31" s="33"/>
-      <c r="H31" s="33"/>
-      <c r="I31" s="33"/>
-      <c r="J31" s="33"/>
-      <c r="K31" s="33"/>
-      <c r="L31" s="33"/>
-      <c r="M31" s="33" t="s">
-        <v>100</v>
-      </c>
-      <c r="N31" s="33"/>
-      <c r="O31" s="33"/>
-      <c r="P31" s="33"/>
-      <c r="Q31" s="33"/>
-      <c r="R31" s="33"/>
-      <c r="S31" s="33"/>
-      <c r="T31" s="33"/>
-      <c r="U31" s="33"/>
+      <c r="C31" s="67"/>
+      <c r="D31" s="67"/>
+      <c r="E31" s="67"/>
+      <c r="F31" s="67"/>
+      <c r="G31" s="67"/>
+      <c r="H31" s="67"/>
+      <c r="I31" s="67"/>
+      <c r="J31" s="67"/>
+      <c r="K31" s="67"/>
+      <c r="L31" s="67"/>
+      <c r="M31" s="67" t="s">
+        <v>100</v>
+      </c>
+      <c r="N31" s="67"/>
+      <c r="O31" s="67"/>
+      <c r="P31" s="67"/>
+      <c r="Q31" s="67"/>
+      <c r="R31" s="67"/>
+      <c r="S31" s="67"/>
+      <c r="T31" s="67"/>
+      <c r="U31" s="67"/>
       <c r="V31" s="35"/>
     </row>
     <row r="32" spans="1:22" ht="15.5">
-      <c r="A32" s="54" t="s">
-        <v>106</v>
+      <c r="A32" s="52" t="s">
+        <v>105</v>
       </c>
       <c r="B32" s="33" t="s">
-        <v>106</v>
-      </c>
-      <c r="C32" s="33"/>
-      <c r="D32" s="33"/>
-      <c r="E32" s="33"/>
-      <c r="F32" s="33"/>
-      <c r="G32" s="33"/>
-      <c r="H32" s="33"/>
-      <c r="I32" s="33"/>
-      <c r="J32" s="33"/>
-      <c r="K32" s="33"/>
-      <c r="L32" s="33"/>
-      <c r="M32" s="34" t="s">
-        <v>100</v>
-      </c>
-      <c r="N32" s="33"/>
-      <c r="O32" s="33"/>
-      <c r="P32" s="33"/>
-      <c r="Q32" s="33"/>
-      <c r="R32" s="33"/>
-      <c r="S32" s="34"/>
-      <c r="T32" s="33"/>
-      <c r="U32" s="33"/>
+        <v>105</v>
+      </c>
+      <c r="C32" s="67"/>
+      <c r="D32" s="67"/>
+      <c r="E32" s="67"/>
+      <c r="F32" s="67"/>
+      <c r="G32" s="67"/>
+      <c r="H32" s="67"/>
+      <c r="I32" s="67"/>
+      <c r="J32" s="67"/>
+      <c r="K32" s="67"/>
+      <c r="L32" s="67"/>
+      <c r="M32" s="66" t="s">
+        <v>99</v>
+      </c>
+      <c r="N32" s="67"/>
+      <c r="O32" s="67"/>
+      <c r="P32" s="67"/>
+      <c r="Q32" s="67"/>
+      <c r="R32" s="67"/>
+      <c r="S32" s="66" t="s">
+        <v>99</v>
+      </c>
+      <c r="T32" s="67"/>
+      <c r="U32" s="67"/>
       <c r="V32" s="35"/>
     </row>
     <row r="33" spans="1:22" ht="15.5">
-      <c r="A33" s="54"/>
+      <c r="A33" s="52"/>
       <c r="B33" s="32">
         <v>5.0999999999999996</v>
       </c>
-      <c r="C33" s="33"/>
-      <c r="D33" s="33"/>
-      <c r="E33" s="33"/>
-      <c r="F33" s="33"/>
-      <c r="G33" s="33"/>
-      <c r="H33" s="33"/>
-      <c r="I33" s="33"/>
-      <c r="J33" s="33"/>
-      <c r="K33" s="33"/>
-      <c r="L33" s="33"/>
-      <c r="M33" s="33" t="s">
-        <v>99</v>
-      </c>
-      <c r="N33" s="33"/>
-      <c r="O33" s="33"/>
-      <c r="P33" s="33"/>
-      <c r="Q33" s="33"/>
-      <c r="R33" s="33"/>
-      <c r="S33" s="33" t="s">
-        <v>99</v>
-      </c>
-      <c r="T33" s="33"/>
-      <c r="U33" s="33"/>
+      <c r="C33" s="67"/>
+      <c r="D33" s="67"/>
+      <c r="E33" s="67"/>
+      <c r="F33" s="67"/>
+      <c r="G33" s="67"/>
+      <c r="H33" s="67"/>
+      <c r="I33" s="67"/>
+      <c r="J33" s="67"/>
+      <c r="K33" s="67"/>
+      <c r="L33" s="67"/>
+      <c r="M33" s="67" t="s">
+        <v>100</v>
+      </c>
+      <c r="N33" s="67"/>
+      <c r="O33" s="67"/>
+      <c r="P33" s="67"/>
+      <c r="Q33" s="67"/>
+      <c r="R33" s="67"/>
+      <c r="S33" s="67" t="s">
+        <v>100</v>
+      </c>
+      <c r="T33" s="67"/>
+      <c r="U33" s="67"/>
       <c r="V33" s="35"/>
     </row>
     <row r="34" spans="1:22" ht="15.5">
-      <c r="A34" s="54"/>
+      <c r="A34" s="52"/>
       <c r="B34" s="32">
         <v>5.2</v>
       </c>
-      <c r="C34" s="33"/>
-      <c r="D34" s="33"/>
-      <c r="E34" s="33"/>
-      <c r="F34" s="33"/>
-      <c r="G34" s="33"/>
-      <c r="H34" s="33"/>
-      <c r="I34" s="33"/>
-      <c r="J34" s="33"/>
-      <c r="K34" s="33"/>
-      <c r="L34" s="33"/>
-      <c r="M34" s="33" t="s">
-        <v>100</v>
-      </c>
-      <c r="N34" s="33"/>
-      <c r="O34" s="33"/>
-      <c r="P34" s="33"/>
-      <c r="Q34" s="33"/>
-      <c r="R34" s="33"/>
-      <c r="S34" s="33" t="s">
-        <v>100</v>
-      </c>
-      <c r="T34" s="33"/>
-      <c r="U34" s="33"/>
+      <c r="C34" s="67"/>
+      <c r="D34" s="67"/>
+      <c r="E34" s="67"/>
+      <c r="F34" s="67"/>
+      <c r="G34" s="67"/>
+      <c r="H34" s="67"/>
+      <c r="I34" s="67"/>
+      <c r="J34" s="67"/>
+      <c r="K34" s="67"/>
+      <c r="L34" s="67"/>
+      <c r="M34" s="67" t="s">
+        <v>100</v>
+      </c>
+      <c r="N34" s="67"/>
+      <c r="O34" s="67"/>
+      <c r="P34" s="67"/>
+      <c r="Q34" s="67"/>
+      <c r="R34" s="67"/>
+      <c r="S34" s="67"/>
+      <c r="T34" s="67"/>
+      <c r="U34" s="67"/>
       <c r="V34" s="35"/>
     </row>
     <row r="35" spans="1:22" ht="15.5">
-      <c r="A35" s="54"/>
+      <c r="A35" s="52"/>
       <c r="B35" s="32">
         <v>5.3</v>
       </c>
-      <c r="C35" s="33"/>
-      <c r="D35" s="33"/>
-      <c r="E35" s="33"/>
-      <c r="F35" s="33"/>
-      <c r="G35" s="33"/>
-      <c r="H35" s="33"/>
-      <c r="I35" s="33"/>
-      <c r="J35" s="33"/>
-      <c r="K35" s="33"/>
-      <c r="L35" s="33"/>
-      <c r="M35" s="33" t="s">
-        <v>100</v>
-      </c>
-      <c r="N35" s="33"/>
-      <c r="O35" s="33"/>
-      <c r="P35" s="33"/>
-      <c r="Q35" s="33"/>
-      <c r="R35" s="33"/>
-      <c r="S35" s="33"/>
-      <c r="T35" s="33"/>
-      <c r="U35" s="33"/>
+      <c r="C35" s="67"/>
+      <c r="D35" s="67"/>
+      <c r="E35" s="67"/>
+      <c r="F35" s="67"/>
+      <c r="G35" s="67"/>
+      <c r="H35" s="67"/>
+      <c r="I35" s="67"/>
+      <c r="J35" s="67"/>
+      <c r="K35" s="67"/>
+      <c r="L35" s="67"/>
+      <c r="M35" s="67" t="s">
+        <v>100</v>
+      </c>
+      <c r="N35" s="67"/>
+      <c r="O35" s="67"/>
+      <c r="P35" s="67"/>
+      <c r="Q35" s="67"/>
+      <c r="R35" s="67"/>
+      <c r="S35" s="67"/>
+      <c r="T35" s="67"/>
+      <c r="U35" s="67"/>
       <c r="V35" s="35"/>
     </row>
-    <row r="36" spans="1:22" s="37" customFormat="1" ht="21">
-      <c r="C36" s="38"/>
-      <c r="D36" s="38"/>
-      <c r="E36" s="39"/>
-      <c r="F36" s="39"/>
-      <c r="G36" s="38"/>
-      <c r="H36" s="38"/>
-      <c r="I36" s="38"/>
-      <c r="J36" s="38"/>
-      <c r="K36" s="39"/>
-      <c r="L36" s="39"/>
-      <c r="M36" s="39" t="s">
-        <v>100</v>
-      </c>
-      <c r="N36" s="38"/>
-      <c r="O36" s="39"/>
-      <c r="P36" s="38"/>
-      <c r="Q36" s="38"/>
-      <c r="R36" s="38"/>
-      <c r="S36" s="39"/>
-      <c r="T36" s="39"/>
-      <c r="U36" s="39"/>
-      <c r="V36" s="40" t="s">
+    <row r="37" spans="1:22" s="37" customFormat="1" ht="21">
+      <c r="C37" s="68" t="s">
+        <v>78</v>
+      </c>
+      <c r="D37" s="68" t="s">
+        <v>79</v>
+      </c>
+      <c r="E37" s="69" t="s">
+        <v>80</v>
+      </c>
+      <c r="F37" s="69" t="s">
+        <v>81</v>
+      </c>
+      <c r="G37" s="68" t="s">
+        <v>82</v>
+      </c>
+      <c r="H37" s="68" t="s">
+        <v>83</v>
+      </c>
+      <c r="I37" s="68" t="s">
+        <v>84</v>
+      </c>
+      <c r="J37" s="68" t="s">
+        <v>85</v>
+      </c>
+      <c r="K37" s="69" t="s">
+        <v>86</v>
+      </c>
+      <c r="L37" s="69" t="s">
+        <v>87</v>
+      </c>
+      <c r="M37" s="69" t="s">
+        <v>88</v>
+      </c>
+      <c r="N37" s="68" t="s">
+        <v>89</v>
+      </c>
+      <c r="O37" s="69" t="s">
+        <v>90</v>
+      </c>
+      <c r="P37" s="68" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q37" s="68" t="s">
+        <v>92</v>
+      </c>
+      <c r="R37" s="68" t="s">
+        <v>93</v>
+      </c>
+      <c r="S37" s="69" t="s">
+        <v>94</v>
+      </c>
+      <c r="T37" s="69" t="s">
+        <v>95</v>
+      </c>
+      <c r="U37" s="69" t="s">
+        <v>96</v>
+      </c>
+      <c r="V37" s="38" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="37" spans="1:22" s="41" customFormat="1" ht="23.5">
-      <c r="A37" s="41" t="s">
-        <v>108</v>
-      </c>
-      <c r="C37" s="42">
+    <row r="38" spans="1:22" s="39" customFormat="1" ht="23.5">
+      <c r="A38" s="39" t="s">
+        <v>107</v>
+      </c>
+      <c r="C38" s="40">
         <v>4</v>
       </c>
-      <c r="D37" s="42">
+      <c r="D38" s="40">
         <v>3</v>
       </c>
-      <c r="E37" s="42">
+      <c r="E38" s="40">
         <v>3</v>
       </c>
-      <c r="F37" s="42">
+      <c r="F38" s="40">
         <v>3</v>
       </c>
-      <c r="G37" s="42">
+      <c r="G38" s="40">
         <v>3</v>
       </c>
-      <c r="H37" s="42">
+      <c r="H38" s="40">
         <v>3</v>
       </c>
-      <c r="I37" s="42">
+      <c r="I38" s="40">
         <v>3</v>
       </c>
-      <c r="J37" s="42">
+      <c r="J38" s="40">
         <v>3</v>
       </c>
-      <c r="K37" s="42">
+      <c r="K38" s="40">
         <v>4</v>
       </c>
-      <c r="L37" s="42">
+      <c r="L38" s="40">
         <v>3</v>
       </c>
-      <c r="M37" s="42">
+      <c r="M38" s="40">
         <v>5</v>
       </c>
-      <c r="N37" s="42">
+      <c r="N38" s="40">
         <v>3</v>
       </c>
-      <c r="O37" s="42">
+      <c r="O38" s="40">
         <v>3</v>
       </c>
-      <c r="P37" s="42">
+      <c r="P38" s="40">
         <v>3</v>
       </c>
-      <c r="Q37" s="42">
+      <c r="Q38" s="40">
         <v>4</v>
       </c>
-      <c r="R37" s="42">
+      <c r="R38" s="40">
         <v>3</v>
       </c>
-      <c r="S37" s="42">
+      <c r="S38" s="40">
         <v>5</v>
       </c>
-      <c r="T37" s="42">
+      <c r="T38" s="40">
         <v>3</v>
       </c>
-      <c r="U37" s="42">
+      <c r="U38" s="40">
         <v>2</v>
       </c>
     </row>
@@ -5855,7 +5968,24 @@
     <mergeCell ref="G2:J2"/>
     <mergeCell ref="K2:M2"/>
   </mergeCells>
-  <conditionalFormatting sqref="C4:V35">
+  <conditionalFormatting sqref="V4:V35">
+    <cfRule type="cellIs" dxfId="94" priority="31" operator="equal">
+      <formula>"S"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="93" priority="32" stopIfTrue="1" operator="equal">
+      <formula>"FM"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="92" priority="33" stopIfTrue="1" operator="equal">
+      <formula>"LM"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="91" priority="34" stopIfTrue="1" operator="equal">
+      <formula>"PM"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="90" priority="35" stopIfTrue="1" operator="equal">
+      <formula>"DM"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B4">
     <cfRule type="cellIs" dxfId="89" priority="26" operator="equal">
       <formula>"S"</formula>
     </cfRule>
@@ -5872,7 +6002,7 @@
       <formula>"DM"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B4">
+  <conditionalFormatting sqref="B9">
     <cfRule type="cellIs" dxfId="84" priority="21" operator="equal">
       <formula>"S"</formula>
     </cfRule>
@@ -5889,7 +6019,7 @@
       <formula>"DM"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B9">
+  <conditionalFormatting sqref="B18">
     <cfRule type="cellIs" dxfId="79" priority="16" operator="equal">
       <formula>"S"</formula>
     </cfRule>
@@ -5906,7 +6036,7 @@
       <formula>"DM"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B18">
+  <conditionalFormatting sqref="B26">
     <cfRule type="cellIs" dxfId="74" priority="11" operator="equal">
       <formula>"S"</formula>
     </cfRule>
@@ -5923,7 +6053,7 @@
       <formula>"DM"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B26">
+  <conditionalFormatting sqref="B32">
     <cfRule type="cellIs" dxfId="69" priority="6" operator="equal">
       <formula>"S"</formula>
     </cfRule>
@@ -5940,7 +6070,7 @@
       <formula>"DM"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B32">
+  <conditionalFormatting sqref="C4:U35">
     <cfRule type="cellIs" dxfId="64" priority="1" operator="equal">
       <formula>"S"</formula>
     </cfRule>
@@ -5982,79 +6112,79 @@
     <col min="18" max="16384" width="8.7265625" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="43" customFormat="1" ht="18.5">
-      <c r="A1" s="43" t="s">
+    <row r="1" spans="1:17" s="41" customFormat="1" ht="18.5">
+      <c r="A1" s="41" t="s">
+        <v>108</v>
+      </c>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="42"/>
+      <c r="H1" s="42"/>
+      <c r="I1" s="42"/>
+      <c r="K1" s="42"/>
+      <c r="L1" s="42"/>
+      <c r="M1" s="42"/>
+      <c r="N1" s="42"/>
+      <c r="O1" s="42"/>
+      <c r="P1" s="42"/>
+      <c r="Q1" s="42"/>
+    </row>
+    <row r="2" spans="1:17" ht="68.150000000000006" customHeight="1">
+      <c r="A2" s="55" t="s">
+        <v>67</v>
+      </c>
+      <c r="B2" s="55" t="s">
+        <v>68</v>
+      </c>
+      <c r="C2" s="31" t="s">
         <v>109</v>
       </c>
-      <c r="C1" s="44"/>
-      <c r="D1" s="44"/>
-      <c r="E1" s="44"/>
-      <c r="F1" s="44"/>
-      <c r="G1" s="44"/>
-      <c r="H1" s="44"/>
-      <c r="I1" s="44"/>
-      <c r="K1" s="44"/>
-      <c r="L1" s="44"/>
-      <c r="M1" s="44"/>
-      <c r="N1" s="44"/>
-      <c r="O1" s="44"/>
-      <c r="P1" s="44"/>
-      <c r="Q1" s="44"/>
-    </row>
-    <row r="2" spans="1:17" ht="68.150000000000006" customHeight="1">
-      <c r="A2" s="57" t="s">
-        <v>67</v>
-      </c>
-      <c r="B2" s="57" t="s">
-        <v>68</v>
-      </c>
-      <c r="C2" s="31" t="s">
+      <c r="D2" s="43" t="s">
         <v>110</v>
       </c>
-      <c r="D2" s="45" t="s">
+      <c r="E2" s="43" t="s">
         <v>111</v>
       </c>
-      <c r="E2" s="45" t="s">
+      <c r="F2" s="43" t="s">
         <v>112</v>
       </c>
-      <c r="F2" s="45" t="s">
+      <c r="G2" s="43" t="s">
         <v>113</v>
       </c>
-      <c r="G2" s="45" t="s">
+      <c r="H2" s="43" t="s">
         <v>114</v>
       </c>
-      <c r="H2" s="45" t="s">
+      <c r="I2" s="43" t="s">
         <v>115</v>
-      </c>
-      <c r="I2" s="45" t="s">
-        <v>116</v>
       </c>
       <c r="J2" s="32"/>
       <c r="K2" s="31" t="s">
+        <v>109</v>
+      </c>
+      <c r="L2" s="43" t="s">
         <v>110</v>
       </c>
-      <c r="L2" s="45" t="s">
+      <c r="M2" s="43" t="s">
         <v>111</v>
       </c>
-      <c r="M2" s="45" t="s">
+      <c r="N2" s="43" t="s">
         <v>112</v>
       </c>
-      <c r="N2" s="45" t="s">
+      <c r="O2" s="43" t="s">
         <v>113</v>
       </c>
-      <c r="O2" s="45" t="s">
+      <c r="P2" s="43" t="s">
         <v>114</v>
       </c>
-      <c r="P2" s="45" t="s">
+      <c r="Q2" s="43" t="s">
         <v>115</v>
       </c>
-      <c r="Q2" s="45" t="s">
-        <v>116</v>
-      </c>
     </row>
     <row r="3" spans="1:17">
-      <c r="A3" s="57"/>
-      <c r="B3" s="57"/>
+      <c r="A3" s="55"/>
+      <c r="B3" s="55"/>
       <c r="C3" s="31" t="s">
         <v>78</v>
       </c>
@@ -6100,7 +6230,7 @@
       </c>
     </row>
     <row r="4" spans="1:17">
-      <c r="A4" s="54" t="s">
+      <c r="A4" s="52" t="s">
         <v>98</v>
       </c>
       <c r="B4" s="33" t="s">
@@ -6123,7 +6253,7 @@
       <c r="Q4" s="34"/>
     </row>
     <row r="5" spans="1:17">
-      <c r="A5" s="54"/>
+      <c r="A5" s="52"/>
       <c r="B5" s="32">
         <v>1.1000000000000001</v>
       </c>
@@ -6172,7 +6302,7 @@
       </c>
     </row>
     <row r="6" spans="1:17">
-      <c r="A6" s="54"/>
+      <c r="A6" s="52"/>
       <c r="B6" s="32">
         <v>1.2</v>
       </c>
@@ -6193,7 +6323,7 @@
       <c r="Q6" s="33"/>
     </row>
     <row r="7" spans="1:17">
-      <c r="A7" s="54"/>
+      <c r="A7" s="52"/>
       <c r="B7" s="32">
         <v>1.3</v>
       </c>
@@ -6214,7 +6344,7 @@
       <c r="Q7" s="33"/>
     </row>
     <row r="8" spans="1:17">
-      <c r="A8" s="54"/>
+      <c r="A8" s="52"/>
       <c r="B8" s="32">
         <v>1.4</v>
       </c>
@@ -6235,11 +6365,11 @@
       <c r="Q8" s="33"/>
     </row>
     <row r="9" spans="1:17">
-      <c r="A9" s="54" t="s">
-        <v>102</v>
+      <c r="A9" s="52" t="s">
+        <v>101</v>
       </c>
       <c r="B9" s="33" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C9" s="34"/>
       <c r="D9" s="34"/>
@@ -6258,7 +6388,7 @@
       <c r="Q9" s="34"/>
     </row>
     <row r="10" spans="1:17">
-      <c r="A10" s="54"/>
+      <c r="A10" s="52"/>
       <c r="B10" s="32">
         <v>2.1</v>
       </c>
@@ -6307,7 +6437,7 @@
       </c>
     </row>
     <row r="11" spans="1:17">
-      <c r="A11" s="54"/>
+      <c r="A11" s="52"/>
       <c r="B11" s="32">
         <v>2.2000000000000002</v>
       </c>
@@ -6356,7 +6486,7 @@
       </c>
     </row>
     <row r="12" spans="1:17">
-      <c r="A12" s="54"/>
+      <c r="A12" s="52"/>
       <c r="B12" s="32">
         <v>2.2999999999999998</v>
       </c>
@@ -6391,7 +6521,7 @@
       <c r="Q12" s="33"/>
     </row>
     <row r="13" spans="1:17">
-      <c r="A13" s="54"/>
+      <c r="A13" s="52"/>
       <c r="B13" s="32">
         <v>2.4</v>
       </c>
@@ -6426,7 +6556,7 @@
       <c r="Q13" s="33"/>
     </row>
     <row r="14" spans="1:17">
-      <c r="A14" s="54"/>
+      <c r="A14" s="52"/>
       <c r="B14" s="32">
         <v>2.5</v>
       </c>
@@ -6447,7 +6577,7 @@
       <c r="Q14" s="33"/>
     </row>
     <row r="15" spans="1:17">
-      <c r="A15" s="54"/>
+      <c r="A15" s="52"/>
       <c r="B15" s="32">
         <v>2.6</v>
       </c>
@@ -6468,7 +6598,7 @@
       <c r="Q15" s="33"/>
     </row>
     <row r="16" spans="1:17">
-      <c r="A16" s="54"/>
+      <c r="A16" s="52"/>
       <c r="B16" s="32">
         <v>2.7</v>
       </c>
@@ -6489,7 +6619,7 @@
       <c r="Q16" s="33"/>
     </row>
     <row r="17" spans="1:17">
-      <c r="A17" s="54"/>
+      <c r="A17" s="52"/>
       <c r="B17" s="32">
         <v>2.8</v>
       </c>
@@ -6510,11 +6640,11 @@
       <c r="Q17" s="33"/>
     </row>
     <row r="18" spans="1:17">
-      <c r="A18" s="54" t="s">
-        <v>103</v>
+      <c r="A18" s="52" t="s">
+        <v>102</v>
       </c>
       <c r="B18" s="33" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C18" s="34"/>
       <c r="D18" s="34"/>
@@ -6533,7 +6663,7 @@
       <c r="Q18" s="34"/>
     </row>
     <row r="19" spans="1:17">
-      <c r="A19" s="54"/>
+      <c r="A19" s="52"/>
       <c r="B19" s="32">
         <v>3.1</v>
       </c>
@@ -6582,7 +6712,7 @@
       </c>
     </row>
     <row r="20" spans="1:17">
-      <c r="A20" s="54"/>
+      <c r="A20" s="52"/>
       <c r="B20" s="32">
         <v>3.2</v>
       </c>
@@ -6631,7 +6761,7 @@
       </c>
     </row>
     <row r="21" spans="1:17">
-      <c r="A21" s="54"/>
+      <c r="A21" s="52"/>
       <c r="B21" s="32">
         <v>3.3</v>
       </c>
@@ -6666,7 +6796,7 @@
       </c>
     </row>
     <row r="22" spans="1:17">
-      <c r="A22" s="54"/>
+      <c r="A22" s="52"/>
       <c r="B22" s="32">
         <v>3.4</v>
       </c>
@@ -6687,7 +6817,7 @@
       <c r="Q22" s="33"/>
     </row>
     <row r="23" spans="1:17">
-      <c r="A23" s="54"/>
+      <c r="A23" s="52"/>
       <c r="B23" s="32">
         <v>3.5</v>
       </c>
@@ -6708,7 +6838,7 @@
       <c r="Q23" s="33"/>
     </row>
     <row r="24" spans="1:17">
-      <c r="A24" s="54"/>
+      <c r="A24" s="52"/>
       <c r="B24" s="32">
         <v>3.6</v>
       </c>
@@ -6729,7 +6859,7 @@
       <c r="Q24" s="33"/>
     </row>
     <row r="25" spans="1:17">
-      <c r="A25" s="54"/>
+      <c r="A25" s="52"/>
       <c r="B25" s="32">
         <v>3.7</v>
       </c>
@@ -6750,11 +6880,11 @@
       <c r="Q25" s="33"/>
     </row>
     <row r="26" spans="1:17">
-      <c r="A26" s="54" t="s">
+      <c r="A26" s="52" t="s">
+        <v>103</v>
+      </c>
+      <c r="B26" s="33" t="s">
         <v>104</v>
-      </c>
-      <c r="B26" s="33" t="s">
-        <v>105</v>
       </c>
       <c r="C26" s="34"/>
       <c r="D26" s="34"/>
@@ -6773,7 +6903,7 @@
       <c r="Q26" s="34"/>
     </row>
     <row r="27" spans="1:17">
-      <c r="A27" s="54"/>
+      <c r="A27" s="52"/>
       <c r="B27" s="32">
         <v>4.0999999999999996</v>
       </c>
@@ -6808,7 +6938,7 @@
       <c r="Q27" s="33"/>
     </row>
     <row r="28" spans="1:17">
-      <c r="A28" s="54"/>
+      <c r="A28" s="52"/>
       <c r="B28" s="32">
         <v>4.2</v>
       </c>
@@ -6829,7 +6959,7 @@
       <c r="Q28" s="33"/>
     </row>
     <row r="29" spans="1:17">
-      <c r="A29" s="54"/>
+      <c r="A29" s="52"/>
       <c r="B29" s="32">
         <v>4.3</v>
       </c>
@@ -6850,7 +6980,7 @@
       <c r="Q29" s="33"/>
     </row>
     <row r="30" spans="1:17">
-      <c r="A30" s="54"/>
+      <c r="A30" s="52"/>
       <c r="B30" s="32">
         <v>4.4000000000000004</v>
       </c>
@@ -6871,7 +7001,7 @@
       <c r="Q30" s="33"/>
     </row>
     <row r="31" spans="1:17">
-      <c r="A31" s="54"/>
+      <c r="A31" s="52"/>
       <c r="B31" s="32">
         <v>4.5</v>
       </c>
@@ -6892,11 +7022,11 @@
       <c r="Q31" s="33"/>
     </row>
     <row r="32" spans="1:17">
-      <c r="A32" s="54" t="s">
-        <v>106</v>
+      <c r="A32" s="52" t="s">
+        <v>105</v>
       </c>
       <c r="B32" s="33" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C32" s="33"/>
       <c r="D32" s="33"/>
@@ -6915,7 +7045,7 @@
       <c r="Q32" s="33"/>
     </row>
     <row r="33" spans="1:17">
-      <c r="A33" s="54"/>
+      <c r="A33" s="52"/>
       <c r="B33" s="32">
         <v>5.0999999999999996</v>
       </c>
@@ -6936,7 +7066,7 @@
       <c r="Q33" s="33"/>
     </row>
     <row r="34" spans="1:17">
-      <c r="A34" s="54"/>
+      <c r="A34" s="52"/>
       <c r="B34" s="32">
         <v>5.2</v>
       </c>
@@ -6957,7 +7087,7 @@
       <c r="Q34" s="33"/>
     </row>
     <row r="35" spans="1:17">
-      <c r="A35" s="54"/>
+      <c r="A35" s="52"/>
       <c r="B35" s="32">
         <v>5.3</v>
       </c>
@@ -7149,7 +7279,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E25CDB50-CA8B-4A55-A6CB-C1A804648919}">
   <dimension ref="A1:C1"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
@@ -7157,18 +7287,18 @@
   <cols>
     <col min="2" max="2" width="16" customWidth="1"/>
     <col min="3" max="3" width="102.1796875" customWidth="1"/>
-    <col min="4" max="16384" width="8.7265625" style="46"/>
+    <col min="4" max="16384" width="8.7265625" style="44"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B1" t="s">
         <v>117</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>118</v>
-      </c>
-      <c r="C1" t="s">
-        <v>119</v>
       </c>
     </row>
   </sheetData>
@@ -7180,7 +7310,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27E05960-3F9D-4C59-BD13-329D61D94FD0}">
   <dimension ref="A2:Q19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
@@ -7249,7 +7379,7 @@
       <c r="P2" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="Q2" s="53" t="s">
+      <c r="Q2" s="51" t="s">
         <v>61</v>
       </c>
     </row>
@@ -7280,29 +7410,29 @@
       <c r="A4" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="B4" s="47" t="s">
+      <c r="B4" s="45" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="67" t="s">
+      <c r="C4" s="65" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="67"/>
-      <c r="E4" s="67"/>
-      <c r="F4" s="67"/>
-      <c r="G4" s="67"/>
-      <c r="H4" s="67"/>
-      <c r="I4" s="52" t="s">
+      <c r="D4" s="65"/>
+      <c r="E4" s="65"/>
+      <c r="F4" s="65"/>
+      <c r="G4" s="65"/>
+      <c r="H4" s="65"/>
+      <c r="I4" s="50" t="s">
         <v>46</v>
       </c>
-      <c r="J4" s="52" t="s">
+      <c r="J4" s="50" t="s">
         <v>45</v>
       </c>
-      <c r="K4" s="51" t="s">
+      <c r="K4" s="49" t="s">
         <v>13</v>
       </c>
-      <c r="L4" s="51"/>
-      <c r="M4" s="51"/>
-      <c r="N4" s="51"/>
+      <c r="L4" s="49"/>
+      <c r="M4" s="49"/>
+      <c r="N4" s="49"/>
       <c r="O4" s="17"/>
       <c r="P4" s="21"/>
       <c r="Q4" s="17"/>
@@ -7311,20 +7441,20 @@
       <c r="A5" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="B5" s="52" t="s">
+      <c r="B5" s="50" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="61" t="s">
+      <c r="C5" s="59" t="s">
         <v>51</v>
       </c>
-      <c r="D5" s="62"/>
-      <c r="E5" s="62"/>
-      <c r="F5" s="62"/>
-      <c r="G5" s="62"/>
-      <c r="H5" s="62"/>
-      <c r="I5" s="62"/>
-      <c r="J5" s="62"/>
-      <c r="K5" s="63"/>
+      <c r="D5" s="60"/>
+      <c r="E5" s="60"/>
+      <c r="F5" s="60"/>
+      <c r="G5" s="60"/>
+      <c r="H5" s="60"/>
+      <c r="I5" s="60"/>
+      <c r="J5" s="60"/>
+      <c r="K5" s="61"/>
       <c r="L5" s="17"/>
       <c r="M5" s="17"/>
       <c r="N5" s="17"/>
@@ -7339,14 +7469,14 @@
       <c r="B6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="64" t="s">
+      <c r="C6" s="62" t="s">
         <v>37</v>
       </c>
-      <c r="D6" s="65"/>
-      <c r="E6" s="65"/>
-      <c r="F6" s="65"/>
-      <c r="G6" s="66"/>
-      <c r="H6" s="48" t="s">
+      <c r="D6" s="63"/>
+      <c r="E6" s="63"/>
+      <c r="F6" s="63"/>
+      <c r="G6" s="64"/>
+      <c r="H6" s="46" t="s">
         <v>47</v>
       </c>
       <c r="I6" s="17"/>
@@ -7366,7 +7496,7 @@
       <c r="B7" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="C7" s="50" t="s">
+      <c r="C7" s="48" t="s">
         <v>66</v>
       </c>
       <c r="D7" s="1" t="s">
@@ -7384,10 +7514,10 @@
       <c r="H7" s="20"/>
       <c r="I7" s="17"/>
       <c r="J7" s="20"/>
-      <c r="K7" s="49"/>
+      <c r="K7" s="47"/>
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
-      <c r="N7" s="49"/>
+      <c r="N7" s="47"/>
       <c r="O7" s="20"/>
       <c r="P7" s="17"/>
       <c r="Q7" s="17"/>
@@ -7405,29 +7535,29 @@
       <c r="B19" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C19" s="67" t="s">
+      <c r="C19" s="65" t="s">
         <v>12</v>
       </c>
-      <c r="D19" s="67"/>
-      <c r="E19" s="67"/>
-      <c r="F19" s="67"/>
-      <c r="G19" s="67"/>
-      <c r="H19" s="67"/>
-      <c r="I19" s="52" t="s">
+      <c r="D19" s="65"/>
+      <c r="E19" s="65"/>
+      <c r="F19" s="65"/>
+      <c r="G19" s="65"/>
+      <c r="H19" s="65"/>
+      <c r="I19" s="50" t="s">
         <v>46</v>
       </c>
-      <c r="J19" s="52" t="s">
+      <c r="J19" s="50" t="s">
         <v>45</v>
       </c>
-      <c r="K19" s="51" t="s">
+      <c r="K19" s="49" t="s">
         <v>13</v>
       </c>
-      <c r="L19" s="51"/>
-      <c r="M19" s="51"/>
-      <c r="N19" s="51"/>
-      <c r="O19" s="58"/>
-      <c r="P19" s="59"/>
-      <c r="Q19" s="60"/>
+      <c r="L19" s="49"/>
+      <c r="M19" s="49"/>
+      <c r="N19" s="49"/>
+      <c r="O19" s="56"/>
+      <c r="P19" s="57"/>
+      <c r="Q19" s="58"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -7480,11 +7610,11 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I6:I7 J6">
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
+      <formula>"No"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
       <formula>"Yes"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
-      <formula>"No"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q3:Q7">
@@ -7612,7 +7742,7 @@
       <c r="P8" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="Q8" s="53" t="s">
+      <c r="Q8" s="51" t="s">
         <v>61</v>
       </c>
     </row>
@@ -7935,18 +8065,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -7969,13 +8099,13 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AE45FE28-8857-469C-99C1-F7A3286F6244}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E3AD396B-AF60-40B6-B9B0-96840893AD50}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E3AD396B-AF60-40B6-B9B0-96840893AD50}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AE45FE28-8857-469C-99C1-F7A3286F6244}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>